--- a/Myobatrachidae/Keogh_Myobatrachidae_Sampling.xlsx
+++ b/Myobatrachidae/Keogh_Myobatrachidae_Sampling.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ScottKeogh/Dropbox/A.SHARED FOLDERS/KeoghDonnellanLemmonSummaryWorkingFile/FINAL TAXON LISTS/CROWN AGES OF OZ FROGS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ianbrennan/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A05A02F6-4968-304B-AAEC-764C8DC29B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECDDE2E-E9A5-0045-BD35-F973FE38A4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="500" windowWidth="49800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18160" yWindow="5780" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Myobatrachidae_SampleInfo" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3277" uniqueCount="1558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="1559">
   <si>
     <t>ahe_index</t>
   </si>
@@ -4709,6 +4709,9 @@
   </si>
   <si>
     <t>CROWN - Mixo</t>
+  </si>
+  <si>
+    <t>CROWN</t>
   </si>
 </sst>
 </file>
@@ -5585,9 +5588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O383"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A152" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane xSplit="6" topLeftCell="G1" activePane="topRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="H35" sqref="H35"/>
+      <selection pane="topRight" activeCell="H165" sqref="H165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -5743,225 +5746,225 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>398</v>
+        <v>338</v>
       </c>
       <c r="B4" s="1">
-        <v>104299</v>
+        <v>24892</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>360</v>
+        <v>330</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>399</v>
+        <v>341</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="I4" s="2">
-        <v>5.8563922560000004</v>
+        <v>8.5751796389999999</v>
       </c>
       <c r="J4" s="1">
-        <v>21590</v>
+        <v>31613</v>
       </c>
       <c r="K4" s="1">
-        <v>0.26610101000000003</v>
+        <v>4.3400776000000002E-2</v>
       </c>
       <c r="L4" s="1">
-        <v>981</v>
+        <v>160</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>400</v>
+        <v>342</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="O4" s="1" t="s">
-        <v>1531</v>
-      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>930</v>
+        <v>398</v>
       </c>
       <c r="B5" s="1">
-        <v>70661</v>
+        <v>104299</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>905</v>
+        <v>360</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>505</v>
+        <v>394</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>931</v>
+        <v>395</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>934</v>
+        <v>399</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="I5" s="2">
-        <v>7.5791318219999999</v>
+        <v>5.8563922560000004</v>
       </c>
       <c r="J5" s="1">
-        <v>27941</v>
+        <v>21590</v>
       </c>
       <c r="K5" s="1">
-        <v>0.114469548</v>
+        <v>0.26610101000000003</v>
       </c>
       <c r="L5" s="1">
-        <v>422</v>
+        <v>981</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>935</v>
+        <v>400</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>1523</v>
       </c>
+      <c r="O5" s="1" t="s">
+        <v>1531</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
       <c r="B6" s="1">
-        <v>15543</v>
+        <v>70661</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>953</v>
+        <v>905</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>954</v>
+        <v>505</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>955</v>
+        <v>931</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>965</v>
+        <v>934</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="I6" s="2">
-        <v>10.48806886</v>
+        <v>7.5791318219999999</v>
       </c>
       <c r="J6" s="1">
-        <v>38665</v>
+        <v>27941</v>
       </c>
       <c r="K6" s="1">
-        <v>0.41230737499999998</v>
+        <v>0.114469548</v>
       </c>
       <c r="L6" s="1">
-        <v>1520</v>
+        <v>422</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>966</v>
+        <v>935</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="O6" s="1" t="s">
-        <v>1527</v>
-      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>1031</v>
+        <v>964</v>
       </c>
       <c r="B7" s="1">
-        <v>25832</v>
+        <v>15543</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>590</v>
+        <v>953</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1032</v>
+        <v>954</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1033</v>
+        <v>955</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>1034</v>
+        <v>965</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="I7" s="2">
-        <v>7.3911522090000004</v>
+        <v>10.48806886</v>
       </c>
       <c r="J7" s="1">
-        <v>27248</v>
+        <v>38665</v>
       </c>
       <c r="K7" s="1">
-        <v>2.7939249999999999E-2</v>
+        <v>0.41230737499999998</v>
       </c>
       <c r="L7" s="1">
-        <v>103</v>
+        <v>1520</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>1035</v>
+        <v>966</v>
       </c>
       <c r="N7" s="1" t="s">
         <v>1523</v>
       </c>
+      <c r="O7" s="1" t="s">
+        <v>1527</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>1251</v>
+        <v>1031</v>
       </c>
       <c r="B8" s="1">
-        <v>50947</v>
+        <v>25832</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>1235</v>
+        <v>590</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1252</v>
+        <v>1032</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1253</v>
+        <v>1033</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>1254</v>
+        <v>1034</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>1554</v>
       </c>
       <c r="I8" s="2">
-        <v>8.5187586290000006</v>
+        <v>7.3911522090000004</v>
       </c>
       <c r="J8" s="1">
-        <v>31405</v>
+        <v>27248</v>
       </c>
       <c r="K8" s="1">
-        <v>0.155157775</v>
+        <v>2.7939249999999999E-2</v>
       </c>
       <c r="L8" s="1">
-        <v>572</v>
+        <v>103</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>1255</v>
+        <v>1035</v>
       </c>
       <c r="N8" s="1" t="s">
         <v>1523</v>
@@ -5969,57 +5972,54 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>509</v>
+        <v>1251</v>
       </c>
       <c r="B9" s="1">
-        <v>25323</v>
+        <v>50947</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>510</v>
+        <v>1235</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>511</v>
+        <v>1252</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>512</v>
+        <v>1253</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>513</v>
+        <v>1254</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>1557</v>
+        <v>1554</v>
       </c>
       <c r="I9" s="2">
-        <v>3.8130294560000002</v>
+        <v>8.5187586290000006</v>
       </c>
       <c r="J9" s="1">
-        <v>14057</v>
+        <v>31405</v>
       </c>
       <c r="K9" s="1">
-        <v>0.166279224</v>
+        <v>0.155157775</v>
       </c>
       <c r="L9" s="1">
-        <v>613</v>
+        <v>572</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>514</v>
+        <v>1255</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>1531</v>
-      </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>558</v>
+        <v>509</v>
       </c>
       <c r="B10" s="1">
-        <v>45861</v>
+        <v>25323</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>14</v>
@@ -6028,75 +6028,78 @@
         <v>510</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>559</v>
+        <v>511</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>560</v>
+        <v>512</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>561</v>
+        <v>513</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="I10" s="2">
-        <v>4.3558104149999997</v>
+        <v>3.8130294560000002</v>
       </c>
       <c r="J10" s="1">
-        <v>16058</v>
+        <v>14057</v>
       </c>
       <c r="K10" s="1">
-        <v>4.4757050999999999E-2</v>
+        <v>0.166279224</v>
       </c>
       <c r="L10" s="1">
-        <v>165</v>
+        <v>613</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>562</v>
+        <v>514</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>1523</v>
       </c>
+      <c r="O10" s="1" t="s">
+        <v>1531</v>
+      </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>23</v>
+        <v>558</v>
       </c>
       <c r="B11" s="1">
-        <v>114066</v>
+        <v>45861</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>24</v>
+        <v>510</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>559</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>26</v>
+        <v>560</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>561</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="I11" s="2">
-        <v>6.1512462799999996</v>
+        <v>4.3558104149999997</v>
       </c>
       <c r="J11" s="1">
-        <v>22677</v>
+        <v>16058</v>
       </c>
       <c r="K11" s="1">
-        <v>6.7542458E-2</v>
+        <v>4.4757050999999999E-2</v>
       </c>
       <c r="L11" s="1">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>28</v>
+        <v>562</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>1523</v>
@@ -6104,134 +6107,134 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
-        <v>136278</v>
+        <v>114066</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>25</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I12" s="2">
-        <v>16.533797</v>
+        <v>6.1512462799999996</v>
       </c>
       <c r="J12" s="1">
-        <v>60953</v>
+        <v>22677</v>
       </c>
       <c r="K12" s="1">
-        <v>5.1809676999999998E-2</v>
+        <v>6.7542458E-2</v>
       </c>
       <c r="L12" s="1">
-        <v>191</v>
+        <v>249</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="O12" s="1" t="s">
-        <v>1551</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B13" s="1">
-        <v>25297</v>
+        <v>136278</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I13" s="2">
-        <v>5.7788133689999999</v>
+        <v>16.533797</v>
       </c>
       <c r="J13" s="1">
-        <v>21304</v>
+        <v>60953</v>
       </c>
       <c r="K13" s="1">
-        <v>8.2190219999999994E-2</v>
+        <v>5.1809676999999998E-2</v>
       </c>
       <c r="L13" s="1">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>1523</v>
+        <v>1551</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>175</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1">
-        <v>25676</v>
+        <v>25297</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>165</v>
+        <v>63</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>166</v>
+        <v>64</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>176</v>
+        <v>65</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I14" s="2">
-        <v>3.899831008</v>
+        <v>5.7788133689999999</v>
       </c>
       <c r="J14" s="1">
-        <v>14377</v>
+        <v>21304</v>
       </c>
       <c r="K14" s="1">
-        <v>0.36104020799999997</v>
+        <v>8.2190219999999994E-2</v>
       </c>
       <c r="L14" s="1">
-        <v>1331</v>
+        <v>303</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>1523</v>
@@ -6239,43 +6242,43 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="B15" s="1">
-        <v>106079</v>
+        <v>25676</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>247</v>
+        <v>176</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I15" s="2">
-        <v>4.2888104660000002</v>
+        <v>3.899831008</v>
       </c>
       <c r="J15" s="1">
-        <v>15811</v>
+        <v>14377</v>
       </c>
       <c r="K15" s="1">
-        <v>3.3635602000000001E-2</v>
+        <v>0.36104020799999997</v>
       </c>
       <c r="L15" s="1">
-        <v>124</v>
+        <v>1331</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>248</v>
+        <v>177</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>1523</v>
@@ -6283,43 +6286,43 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>503</v>
+        <v>243</v>
       </c>
       <c r="B16" s="1">
-        <v>17124</v>
+        <v>106079</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>504</v>
+        <v>244</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>505</v>
+        <v>245</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>506</v>
+        <v>246</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>507</v>
+        <v>247</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I16" s="2">
-        <v>10.653805569999999</v>
+        <v>4.2888104660000002</v>
       </c>
       <c r="J16" s="1">
-        <v>39276</v>
+        <v>15811</v>
       </c>
       <c r="K16" s="1">
-        <v>0.13996750399999999</v>
+        <v>3.3635602000000001E-2</v>
       </c>
       <c r="L16" s="1">
-        <v>516</v>
+        <v>124</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>508</v>
+        <v>248</v>
       </c>
       <c r="N16" s="1" t="s">
         <v>1523</v>
@@ -6327,43 +6330,43 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>615</v>
+        <v>503</v>
       </c>
       <c r="B17" s="1">
-        <v>156759</v>
+        <v>17124</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>616</v>
+        <v>504</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>617</v>
+        <v>505</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>618</v>
+        <v>506</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>619</v>
+        <v>507</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I17" s="2">
-        <v>17.144391670000001</v>
+        <v>10.653805569999999</v>
       </c>
       <c r="J17" s="1">
-        <v>63204</v>
+        <v>39276</v>
       </c>
       <c r="K17" s="1">
-        <v>3.3364347000000003E-2</v>
+        <v>0.13996750399999999</v>
       </c>
       <c r="L17" s="1">
-        <v>123</v>
+        <v>516</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>620</v>
+        <v>508</v>
       </c>
       <c r="N17" s="1" t="s">
         <v>1523</v>
@@ -6371,43 +6374,43 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>987</v>
+        <v>615</v>
       </c>
       <c r="B18" s="1">
-        <v>26441</v>
+        <v>156759</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>988</v>
+        <v>616</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>989</v>
+        <v>617</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>990</v>
+        <v>618</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>991</v>
+        <v>619</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I18" s="2">
-        <v>2.974309453</v>
+        <v>17.144391670000001</v>
       </c>
       <c r="J18" s="1">
-        <v>10965</v>
+        <v>63204</v>
       </c>
       <c r="K18" s="1">
-        <v>6.1846105999999998E-2</v>
+        <v>3.3364347000000003E-2</v>
       </c>
       <c r="L18" s="1">
-        <v>228</v>
+        <v>123</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>992</v>
+        <v>620</v>
       </c>
       <c r="N18" s="1" t="s">
         <v>1523</v>
@@ -6415,43 +6418,43 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>1148</v>
+        <v>987</v>
       </c>
       <c r="B19" s="1">
-        <v>16479</v>
+        <v>26441</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1040</v>
+        <v>988</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1149</v>
+        <v>989</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1150</v>
+        <v>990</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>1151</v>
+        <v>991</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I19" s="2">
-        <v>1.922383137</v>
+        <v>2.974309453</v>
       </c>
       <c r="J19" s="1">
-        <v>7087</v>
+        <v>10965</v>
       </c>
       <c r="K19" s="1">
-        <v>0.245756896</v>
+        <v>6.1846105999999998E-2</v>
       </c>
       <c r="L19" s="1">
-        <v>906</v>
+        <v>228</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>1152</v>
+        <v>992</v>
       </c>
       <c r="N19" s="1" t="s">
         <v>1523</v>
@@ -6459,43 +6462,43 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>1228</v>
+        <v>1148</v>
       </c>
       <c r="B20" s="1">
-        <v>144371</v>
+        <v>16479</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1229</v>
+        <v>1040</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1230</v>
+        <v>1149</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1231</v>
+        <v>1150</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>1232</v>
+        <v>1151</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I20" s="2">
-        <v>3.9611346049999998</v>
+        <v>1.922383137</v>
       </c>
       <c r="J20" s="1">
-        <v>14603</v>
+        <v>7087</v>
       </c>
       <c r="K20" s="1">
-        <v>9.1684139999999997E-2</v>
+        <v>0.245756896</v>
       </c>
       <c r="L20" s="1">
-        <v>338</v>
+        <v>906</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>1233</v>
+        <v>1152</v>
       </c>
       <c r="N20" s="1" t="s">
         <v>1523</v>
@@ -6503,43 +6506,43 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>1352</v>
+        <v>1228</v>
+      </c>
+      <c r="B21" s="1">
+        <v>144371</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>601</v>
+        <v>1229</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1353</v>
+        <v>1230</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1354</v>
+        <v>1231</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>1355</v>
+        <v>1232</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="I21" s="2">
-        <v>1.7308772109999999</v>
+        <v>3.9611346049999998</v>
       </c>
       <c r="J21" s="1">
-        <v>6381</v>
+        <v>14603</v>
       </c>
       <c r="K21" s="1">
-        <v>0.234364192</v>
+        <v>9.1684139999999997E-2</v>
       </c>
       <c r="L21" s="1">
-        <v>864</v>
+        <v>338</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>1356</v>
+        <v>1233</v>
       </c>
       <c r="N21" s="1" t="s">
         <v>1523</v>
@@ -6547,43 +6550,43 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>67</v>
+        <v>1351</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>68</v>
+        <v>1352</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>70</v>
+        <v>601</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>71</v>
+        <v>1353</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>72</v>
+        <v>1354</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>73</v>
+        <v>1355</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>1556</v>
+        <v>1553</v>
       </c>
       <c r="I22" s="2">
-        <v>70.07136715</v>
+        <v>1.7308772109999999</v>
       </c>
       <c r="J22" s="1">
-        <v>258323</v>
+        <v>6381</v>
       </c>
       <c r="K22" s="1">
-        <v>3.0923052999999999E-2</v>
+        <v>0.234364192</v>
       </c>
       <c r="L22" s="1">
-        <v>114</v>
+        <v>864</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>74</v>
+        <v>1356</v>
       </c>
       <c r="N22" s="1" t="s">
         <v>1523</v>
@@ -6591,43 +6594,43 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="B23" s="1">
-        <v>7324</v>
+        <v>67</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>1215</v>
+        <v>70</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1216</v>
+        <v>71</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1217</v>
+        <v>72</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>1218</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="I23" s="2">
-        <v>10.17395574</v>
+        <v>70.07136715</v>
       </c>
       <c r="J23" s="1">
-        <v>37507</v>
+        <v>258323</v>
       </c>
       <c r="K23" s="1">
-        <v>6.2388616000000001E-2</v>
+        <v>3.0923052999999999E-2</v>
       </c>
       <c r="L23" s="1">
-        <v>230</v>
+        <v>114</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>1219</v>
+        <v>74</v>
       </c>
       <c r="N23" s="1" t="s">
         <v>1523</v>
@@ -6635,10 +6638,10 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>1223</v>
+        <v>1214</v>
       </c>
       <c r="B24" s="1">
-        <v>105698</v>
+        <v>7324</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>14</v>
@@ -6647,31 +6650,31 @@
         <v>1215</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>1555</v>
       </c>
       <c r="I24" s="2">
-        <v>9.4686931209999994</v>
+        <v>10.17395574</v>
       </c>
       <c r="J24" s="1">
-        <v>34907</v>
+        <v>37507</v>
       </c>
       <c r="K24" s="1">
-        <v>3.1736818E-2</v>
+        <v>6.2388616000000001E-2</v>
       </c>
       <c r="L24" s="1">
-        <v>117</v>
+        <v>230</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="N24" s="1" t="s">
         <v>1523</v>
@@ -6679,81 +6682,84 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>20</v>
+        <v>1223</v>
       </c>
       <c r="B25" s="1">
-        <v>51304</v>
+        <v>105698</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>15</v>
+        <v>1215</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>17</v>
+        <v>1224</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>1225</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>21</v>
+        <v>1226</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>1555</v>
       </c>
       <c r="I25" s="2">
-        <v>12.187480499999999</v>
+        <v>9.4686931209999994</v>
       </c>
       <c r="J25" s="1">
-        <v>44930</v>
+        <v>34907</v>
       </c>
       <c r="K25" s="1">
-        <v>7.1340026000000001E-2</v>
+        <v>3.1736818E-2</v>
       </c>
       <c r="L25" s="1">
-        <v>263</v>
+        <v>117</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>22</v>
+        <v>1227</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B26" s="1">
-        <v>157832</v>
+        <v>51304</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I26" s="2">
-        <v>15.129781879999999</v>
+        <v>12.187480499999999</v>
       </c>
       <c r="J26" s="1">
-        <v>55777</v>
+        <v>44930</v>
       </c>
       <c r="K26" s="1">
-        <v>6.1574851E-2</v>
+        <v>7.1340026000000001E-2</v>
       </c>
       <c r="L26" s="1">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="N26" s="1" t="s">
         <v>1525</v>
@@ -6761,10 +6767,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
-        <v>123524</v>
+        <v>157832</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>14</v>
@@ -6773,39 +6779,39 @@
         <v>24</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>25</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="I27" s="2">
-        <v>12.27618084</v>
+        <v>15.129781879999999</v>
       </c>
       <c r="J27" s="1">
-        <v>45257</v>
+        <v>55777</v>
       </c>
       <c r="K27" s="1">
-        <v>0.18553831900000001</v>
+        <v>6.1574851E-2</v>
       </c>
       <c r="L27" s="1">
-        <v>684</v>
+        <v>227</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1">
-        <v>123494</v>
+        <v>123524</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>14</v>
@@ -6816,81 +6822,78 @@
       <c r="E28" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I28" s="2">
-        <v>13.98373013</v>
+        <v>12.27618084</v>
       </c>
       <c r="J28" s="1">
-        <v>51552</v>
+        <v>45257</v>
       </c>
       <c r="K28" s="1">
-        <v>0.17550188899999999</v>
+        <v>0.18553831900000001</v>
       </c>
       <c r="L28" s="1">
-        <v>647</v>
+        <v>684</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B29" s="1">
-        <v>136279</v>
+        <v>123494</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I29" s="2">
-        <v>16.76409237</v>
+        <v>13.98373013</v>
       </c>
       <c r="J29" s="1">
-        <v>61802</v>
+        <v>51552</v>
       </c>
       <c r="K29" s="1">
-        <v>4.8825872999999999E-2</v>
+        <v>0.17550188899999999</v>
       </c>
       <c r="L29" s="1">
-        <v>180</v>
+        <v>647</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>1551</v>
-      </c>
-      <c r="O29" s="1" t="s">
-        <v>1551</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" s="1">
-        <v>140568</v>
+        <v>136279</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>14</v>
@@ -6905,22 +6908,22 @@
         <v>43</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I30" s="2">
-        <v>16.949359430000001</v>
+        <v>16.76409237</v>
       </c>
       <c r="J30" s="1">
-        <v>62485</v>
+        <v>61802</v>
       </c>
       <c r="K30" s="1">
-        <v>3.0651798000000001E-2</v>
+        <v>4.8825872999999999E-2</v>
       </c>
       <c r="L30" s="1">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N30" s="1" t="s">
         <v>1551</v>
@@ -6931,10 +6934,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1">
-        <v>140569</v>
+        <v>140568</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>14</v>
@@ -6949,22 +6952,22 @@
         <v>43</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I31" s="2">
-        <v>17.97605905</v>
+        <v>16.949359430000001</v>
       </c>
       <c r="J31" s="1">
-        <v>66270</v>
+        <v>62485</v>
       </c>
       <c r="K31" s="1">
-        <v>2.7939249999999999E-2</v>
+        <v>3.0651798000000001E-2</v>
       </c>
       <c r="L31" s="1">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N31" s="1" t="s">
         <v>1551</v>
@@ -6975,10 +6978,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B32" s="1">
-        <v>140576</v>
+        <v>140569</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>14</v>
@@ -6993,22 +6996,22 @@
         <v>43</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I32" s="2">
-        <v>18.622188099999999</v>
+        <v>17.97605905</v>
       </c>
       <c r="J32" s="1">
-        <v>68652</v>
+        <v>66270</v>
       </c>
       <c r="K32" s="1">
-        <v>0.10416186299999999</v>
+        <v>2.7939249999999999E-2</v>
       </c>
       <c r="L32" s="1">
-        <v>384</v>
+        <v>103</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N32" s="1" t="s">
         <v>1551</v>
@@ -7019,10 +7022,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B33" s="1">
-        <v>140577</v>
+        <v>140576</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>14</v>
@@ -7037,22 +7040,22 @@
         <v>43</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I33" s="2">
-        <v>19.97330852</v>
+        <v>18.622188099999999</v>
       </c>
       <c r="J33" s="1">
-        <v>73633</v>
+        <v>68652</v>
       </c>
       <c r="K33" s="1">
-        <v>0.10443311800000001</v>
+        <v>0.10416186299999999</v>
       </c>
       <c r="L33" s="1">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N33" s="1" t="s">
         <v>1551</v>
@@ -7063,51 +7066,54 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B34" s="1">
-        <v>131961</v>
+        <v>140577</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>42</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="I34" s="2">
-        <v>5.5273601210000001</v>
+        <v>19.97330852</v>
       </c>
       <c r="J34" s="1">
-        <v>20377</v>
+        <v>73633</v>
       </c>
       <c r="K34" s="1">
-        <v>0.48934375299999999</v>
+        <v>0.10443311800000001</v>
       </c>
       <c r="L34" s="1">
-        <v>1804</v>
+        <v>385</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>1523</v>
+        <v>1551</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B35" s="1">
-        <v>131743</v>
+        <v>131961</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>14</v>
@@ -7118,37 +7124,37 @@
       <c r="E35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="1" t="s">
         <v>78</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I35" s="2">
-        <v>6.8006303959999999</v>
+        <v>5.5273601210000001</v>
       </c>
       <c r="J35" s="1">
-        <v>25071</v>
+        <v>20377</v>
       </c>
       <c r="K35" s="1">
-        <v>0.50561904400000002</v>
+        <v>0.48934375299999999</v>
       </c>
       <c r="L35" s="1">
-        <v>1864</v>
+        <v>1804</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B36" s="1">
-        <v>17752</v>
+        <v>131743</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>14</v>
@@ -7157,39 +7163,39 @@
         <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I36" s="2">
-        <v>5.1332268210000001</v>
+        <v>6.8006303959999999</v>
       </c>
       <c r="J36" s="1">
-        <v>18924</v>
+        <v>25071</v>
       </c>
       <c r="K36" s="1">
-        <v>0.32930338999999997</v>
+        <v>0.50561904400000002</v>
       </c>
       <c r="L36" s="1">
-        <v>1214</v>
+        <v>1864</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1">
-        <v>72794</v>
+        <v>17752</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>14</v>
@@ -7200,37 +7206,37 @@
       <c r="E37" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I37" s="2">
-        <v>5.4069229659999998</v>
+        <v>5.1332268210000001</v>
       </c>
       <c r="J37" s="1">
-        <v>19933</v>
+        <v>18924</v>
       </c>
       <c r="K37" s="1">
-        <v>0.44729925100000001</v>
+        <v>0.32930338999999997</v>
       </c>
       <c r="L37" s="1">
-        <v>1649</v>
+        <v>1214</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B38" s="1">
-        <v>128284</v>
+        <v>72794</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>14</v>
@@ -7239,39 +7245,39 @@
         <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>94</v>
+        <v>85</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="I38" s="2">
-        <v>4.0899806600000002</v>
+        <v>5.4069229659999998</v>
       </c>
       <c r="J38" s="1">
-        <v>15078</v>
+        <v>19933</v>
       </c>
       <c r="K38" s="1">
-        <v>0.13752621000000001</v>
+        <v>0.44729925100000001</v>
       </c>
       <c r="L38" s="1">
-        <v>507</v>
+        <v>1649</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B39" s="1">
-        <v>128282</v>
+        <v>128284</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>14</v>
@@ -7282,37 +7288,37 @@
       <c r="E39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="1" t="s">
         <v>94</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="I39" s="2">
-        <v>4.820469976</v>
+        <v>4.0899806600000002</v>
       </c>
       <c r="J39" s="1">
-        <v>17771</v>
+        <v>15078</v>
       </c>
       <c r="K39" s="1">
-        <v>0.15597153999999999</v>
+        <v>0.13752621000000001</v>
       </c>
       <c r="L39" s="1">
-        <v>575</v>
+        <v>507</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1">
-        <v>128283</v>
+        <v>128282</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>14</v>
@@ -7327,22 +7333,22 @@
         <v>94</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I40" s="2">
-        <v>4.9303281910000001</v>
+        <v>4.820469976</v>
       </c>
       <c r="J40" s="1">
-        <v>18176</v>
+        <v>17771</v>
       </c>
       <c r="K40" s="1">
-        <v>0.15190271699999999</v>
+        <v>0.15597153999999999</v>
       </c>
       <c r="L40" s="1">
-        <v>560</v>
+        <v>575</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>1525</v>
@@ -7350,10 +7356,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B41" s="1">
-        <v>39039</v>
+        <v>128283</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>14</v>
@@ -7362,39 +7368,39 @@
         <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="I41" s="2">
-        <v>2.7996213280000002</v>
+        <v>4.9303281910000001</v>
       </c>
       <c r="J41" s="1">
-        <v>10321</v>
+        <v>18176</v>
       </c>
       <c r="K41" s="1">
-        <v>0.13020232900000001</v>
+        <v>0.15190271699999999</v>
       </c>
       <c r="L41" s="1">
-        <v>480</v>
+        <v>560</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B42" s="1">
-        <v>70424</v>
+        <v>39039</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>14</v>
@@ -7405,37 +7411,37 @@
       <c r="E42" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="1" t="s">
         <v>105</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I42" s="2">
-        <v>13.64710286</v>
+        <v>2.7996213280000002</v>
       </c>
       <c r="J42" s="1">
-        <v>50311</v>
+        <v>10321</v>
       </c>
       <c r="K42" s="1">
-        <v>0.112842018</v>
+        <v>0.13020232900000001</v>
       </c>
       <c r="L42" s="1">
-        <v>416</v>
+        <v>480</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B43" s="1">
-        <v>135056</v>
+        <v>70424</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>14</v>
@@ -7444,39 +7450,39 @@
         <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="I43" s="2">
-        <v>7.616022482</v>
+        <v>13.64710286</v>
       </c>
       <c r="J43" s="1">
-        <v>28077</v>
+        <v>50311</v>
       </c>
       <c r="K43" s="1">
-        <v>0.46303203199999998</v>
+        <v>0.112842018</v>
       </c>
       <c r="L43" s="1">
-        <v>1707</v>
+        <v>416</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B44" s="1">
-        <v>113878</v>
+        <v>135056</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>14</v>
@@ -7485,42 +7491,39 @@
         <v>76</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="I44" s="2">
-        <v>3.3212444090000002</v>
+        <v>7.616022482</v>
       </c>
       <c r="J44" s="1">
-        <v>12244</v>
+        <v>28077</v>
       </c>
       <c r="K44" s="1">
-        <v>0.31519813800000002</v>
+        <v>0.46303203199999998</v>
       </c>
       <c r="L44" s="1">
-        <v>1162</v>
+        <v>1707</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>1523</v>
       </c>
-      <c r="O44" s="1" t="s">
-        <v>1535</v>
-      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B45" s="1">
-        <v>116059</v>
+        <v>113878</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>14</v>
@@ -7535,22 +7538,22 @@
         <v>118</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="I45" s="2">
-        <v>5.2620728750000003</v>
+        <v>3.3212444090000002</v>
       </c>
       <c r="J45" s="1">
-        <v>19399</v>
+        <v>12244</v>
       </c>
       <c r="K45" s="1">
-        <v>0.381384322</v>
+        <v>0.31519813800000002</v>
       </c>
       <c r="L45" s="1">
-        <v>1406</v>
+        <v>1162</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="N45" s="1" t="s">
         <v>1523</v>
@@ -7561,10 +7564,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B46" s="1">
-        <v>116145</v>
+        <v>116059</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
@@ -7575,37 +7578,40 @@
       <c r="E46" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="1" t="s">
         <v>118</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I46" s="2">
-        <v>6.5201528790000003</v>
+        <v>5.2620728750000003</v>
       </c>
       <c r="J46" s="1">
-        <v>24037</v>
+        <v>19399</v>
       </c>
       <c r="K46" s="1">
-        <v>0.31058680599999999</v>
+        <v>0.381384322</v>
       </c>
       <c r="L46" s="1">
-        <v>1145</v>
+        <v>1406</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B47" s="1">
-        <v>144822</v>
+        <v>116145</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>14</v>
@@ -7614,39 +7620,39 @@
         <v>76</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>129</v>
+        <v>117</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="I47" s="2">
-        <v>6.0999791129999998</v>
+        <v>6.5201528790000003</v>
       </c>
       <c r="J47" s="1">
-        <v>22488</v>
+        <v>24037</v>
       </c>
       <c r="K47" s="1">
-        <v>0.31438437400000002</v>
+        <v>0.31058680599999999</v>
       </c>
       <c r="L47" s="1">
-        <v>1159</v>
+        <v>1145</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B48" s="1">
-        <v>144660</v>
+        <v>144822</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>14</v>
@@ -7657,37 +7663,37 @@
       <c r="E48" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="1" t="s">
         <v>129</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="I48" s="2">
-        <v>7.5967633870000002</v>
+        <v>6.0999791129999998</v>
       </c>
       <c r="J48" s="1">
-        <v>28006</v>
+        <v>22488</v>
       </c>
       <c r="K48" s="1">
-        <v>0.27098359700000002</v>
+        <v>0.31438437400000002</v>
       </c>
       <c r="L48" s="1">
-        <v>999</v>
+        <v>1159</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B49" s="1">
-        <v>26426</v>
+        <v>144660</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>14</v>
@@ -7696,39 +7702,39 @@
         <v>76</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="F49" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="I49" s="2">
-        <v>3.479657242</v>
+        <v>7.5967633870000002</v>
       </c>
       <c r="J49" s="1">
-        <v>12828</v>
+        <v>28006</v>
       </c>
       <c r="K49" s="1">
-        <v>0.245485641</v>
+        <v>0.27098359700000002</v>
       </c>
       <c r="L49" s="1">
-        <v>905</v>
+        <v>999</v>
       </c>
       <c r="M49" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B50" s="1">
-        <v>114036</v>
+        <v>26426</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>14</v>
@@ -7737,28 +7743,28 @@
         <v>76</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="I50" s="2">
-        <v>5.1408219559999999</v>
+        <v>3.479657242</v>
       </c>
       <c r="J50" s="1">
-        <v>18952</v>
+        <v>12828</v>
       </c>
       <c r="K50" s="1">
-        <v>0.22134395900000001</v>
+        <v>0.245485641</v>
       </c>
       <c r="L50" s="1">
-        <v>816</v>
+        <v>905</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>1523</v>
@@ -7766,10 +7772,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B51" s="1">
-        <v>144094</v>
+        <v>114036</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>14</v>
@@ -7780,37 +7786,37 @@
       <c r="E51" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="1" t="s">
         <v>142</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="I51" s="2">
-        <v>10.900376229999999</v>
+        <v>5.1408219559999999</v>
       </c>
       <c r="J51" s="1">
-        <v>40185</v>
+        <v>18952</v>
       </c>
       <c r="K51" s="1">
-        <v>0.28834390799999998</v>
+        <v>0.22134395900000001</v>
       </c>
       <c r="L51" s="1">
-        <v>1063</v>
+        <v>816</v>
       </c>
       <c r="M51" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1">
-        <v>17181</v>
+        <v>144094</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>14</v>
@@ -7819,39 +7825,39 @@
         <v>76</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>142</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="I52" s="2">
-        <v>8.7493252540000004</v>
+        <v>10.900376229999999</v>
       </c>
       <c r="J52" s="1">
-        <v>32255</v>
+        <v>40185</v>
       </c>
       <c r="K52" s="1">
-        <v>0.400643417</v>
+        <v>0.28834390799999998</v>
       </c>
       <c r="L52" s="1">
-        <v>1477</v>
+        <v>1063</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B53" s="1">
-        <v>79182</v>
+        <v>17181</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>14</v>
@@ -7866,22 +7872,22 @@
         <v>150</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="I53" s="2">
-        <v>12.56642353</v>
+        <v>8.7493252540000004</v>
       </c>
       <c r="J53" s="1">
-        <v>46327</v>
+        <v>32255</v>
       </c>
       <c r="K53" s="1">
-        <v>0.24385811199999999</v>
+        <v>0.400643417</v>
       </c>
       <c r="L53" s="1">
-        <v>899</v>
+        <v>1477</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>1523</v>
@@ -7889,10 +7895,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B54" s="1">
-        <v>17182</v>
+        <v>79182</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>14</v>
@@ -7903,37 +7909,37 @@
       <c r="E54" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="1" t="s">
         <v>150</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I54" s="2">
-        <v>14.308150940000001</v>
+        <v>12.56642353</v>
       </c>
       <c r="J54" s="1">
-        <v>52748</v>
+        <v>46327</v>
       </c>
       <c r="K54" s="1">
-        <v>0.39467581000000002</v>
+        <v>0.24385811199999999</v>
       </c>
       <c r="L54" s="1">
-        <v>1455</v>
+        <v>899</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B55" s="1">
-        <v>76028</v>
+        <v>17182</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>14</v>
@@ -7942,39 +7948,39 @@
         <v>76</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="1" t="s">
-        <v>161</v>
+        <v>149</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="I55" s="2">
-        <v>14.94668486</v>
+        <v>14.308150940000001</v>
       </c>
       <c r="J55" s="1">
-        <v>55102</v>
+        <v>52748</v>
       </c>
       <c r="K55" s="1">
-        <v>0.10443311800000001</v>
+        <v>0.39467581000000002</v>
       </c>
       <c r="L55" s="1">
-        <v>385</v>
+        <v>1455</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B56" s="1">
-        <v>14924</v>
+        <v>76028</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>14</v>
@@ -7983,39 +7989,39 @@
         <v>76</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="I56" s="2">
-        <v>2.6799979380000001</v>
+        <v>14.94668486</v>
       </c>
       <c r="J56" s="1">
-        <v>9880</v>
+        <v>55102</v>
       </c>
       <c r="K56" s="1">
-        <v>0.44133164400000002</v>
+        <v>0.10443311800000001</v>
       </c>
       <c r="L56" s="1">
-        <v>1627</v>
+        <v>385</v>
       </c>
       <c r="M56" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="N56" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B57" s="1">
-        <v>33488</v>
+        <v>14924</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>14</v>
@@ -8030,36 +8036,33 @@
         <v>166</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I57" s="2">
-        <v>2.9840746280000001</v>
+        <v>2.6799979380000001</v>
       </c>
       <c r="J57" s="1">
-        <v>11001</v>
+        <v>9880</v>
       </c>
       <c r="K57" s="1">
-        <v>0.25009697400000003</v>
+        <v>0.44133164400000002</v>
       </c>
       <c r="L57" s="1">
-        <v>922</v>
+        <v>1627</v>
       </c>
       <c r="M57" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="N57" s="1" t="s">
         <v>1525</v>
       </c>
-      <c r="O57" s="1" t="s">
-        <v>1536</v>
-      </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" s="1">
-        <v>17180</v>
+        <v>33488</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>14</v>
@@ -8074,33 +8077,36 @@
         <v>166</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="I58" s="2">
-        <v>3.3811917309999999</v>
+        <v>2.9840746280000001</v>
       </c>
       <c r="J58" s="1">
-        <v>12465</v>
+        <v>11001</v>
       </c>
       <c r="K58" s="1">
-        <v>0.246841915</v>
+        <v>0.25009697400000003</v>
       </c>
       <c r="L58" s="1">
-        <v>910</v>
+        <v>922</v>
       </c>
       <c r="M58" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="N58" s="1" t="s">
         <v>1525</v>
       </c>
+      <c r="O58" s="1" t="s">
+        <v>1536</v>
+      </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B59" s="1">
-        <v>26421</v>
+        <v>17180</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>14</v>
@@ -8111,37 +8117,37 @@
       <c r="E59" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="F59" s="2" t="s">
         <v>166</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="I59" s="2">
-        <v>4.7879193940000002</v>
+        <v>3.3811917309999999</v>
       </c>
       <c r="J59" s="1">
-        <v>17651</v>
+        <v>12465</v>
       </c>
       <c r="K59" s="1">
-        <v>9.3582923999999998E-2</v>
+        <v>0.246841915</v>
       </c>
       <c r="L59" s="1">
-        <v>345</v>
+        <v>910</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="N59" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B60" s="1">
-        <v>12883</v>
+        <v>26421</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>14</v>
@@ -8156,22 +8162,22 @@
         <v>166</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I60" s="2">
-        <v>4.9919030429999998</v>
+        <v>4.7879193940000002</v>
       </c>
       <c r="J60" s="1">
-        <v>18403</v>
+        <v>17651</v>
       </c>
       <c r="K60" s="1">
-        <v>0.37894302800000002</v>
+        <v>9.3582923999999998E-2</v>
       </c>
       <c r="L60" s="1">
-        <v>1397</v>
+        <v>345</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="N60" s="1" t="s">
         <v>1523</v>
@@ -8179,10 +8185,10 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B61" s="1">
-        <v>12885</v>
+        <v>12883</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>14</v>
@@ -8193,17 +8199,17 @@
       <c r="E61" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="1" t="s">
         <v>166</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="I61" s="2">
-        <v>5.0315062509999997</v>
+        <v>4.9919030429999998</v>
       </c>
       <c r="J61" s="1">
-        <v>18549</v>
+        <v>18403</v>
       </c>
       <c r="K61" s="1">
         <v>0.37894302800000002</v>
@@ -8212,18 +8218,18 @@
         <v>1397</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N61" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B62" s="1">
-        <v>17625</v>
+        <v>12885</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>14</v>
@@ -8238,22 +8244,22 @@
         <v>166</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="I62" s="2">
-        <v>5.7915623470000002</v>
+        <v>5.0315062509999997</v>
       </c>
       <c r="J62" s="1">
-        <v>21351</v>
+        <v>18549</v>
       </c>
       <c r="K62" s="1">
-        <v>0.32686209700000002</v>
+        <v>0.37894302800000002</v>
       </c>
       <c r="L62" s="1">
-        <v>1205</v>
+        <v>1397</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="N62" s="1" t="s">
         <v>1525</v>
@@ -8261,10 +8267,10 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>68</v>
+        <v>187</v>
+      </c>
+      <c r="B63" s="1">
+        <v>17625</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>14</v>
@@ -8279,22 +8285,22 @@
         <v>166</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I63" s="2">
-        <v>6.7284766060000001</v>
+        <v>5.7915623470000002</v>
       </c>
       <c r="J63" s="1">
-        <v>24805</v>
+        <v>21351</v>
       </c>
       <c r="K63" s="1">
-        <v>0.46113324900000002</v>
+        <v>0.32686209700000002</v>
       </c>
       <c r="L63" s="1">
-        <v>1700</v>
+        <v>1205</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="N63" s="1" t="s">
         <v>1525</v>
@@ -8302,10 +8308,10 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B64" s="1">
-        <v>26424</v>
+        <v>190</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>14</v>
@@ -8320,22 +8326,22 @@
         <v>166</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="I64" s="2">
-        <v>7.6732572550000002</v>
+        <v>6.7284766060000001</v>
       </c>
       <c r="J64" s="1">
-        <v>28288</v>
+        <v>24805</v>
       </c>
       <c r="K64" s="1">
-        <v>0.111756999</v>
+        <v>0.46113324900000002</v>
       </c>
       <c r="L64" s="1">
-        <v>412</v>
+        <v>1700</v>
       </c>
       <c r="M64" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="N64" s="1" t="s">
         <v>1525</v>
@@ -8343,10 +8349,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B65" s="1">
-        <v>17179</v>
+        <v>26424</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>14</v>
@@ -8357,37 +8363,37 @@
       <c r="E65" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="F65" s="2" t="s">
         <v>166</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="I65" s="2">
-        <v>8.4712890299999994</v>
+        <v>7.6732572550000002</v>
       </c>
       <c r="J65" s="1">
-        <v>31230</v>
+        <v>28288</v>
       </c>
       <c r="K65" s="1">
-        <v>0.222428979</v>
+        <v>0.111756999</v>
       </c>
       <c r="L65" s="1">
-        <v>820</v>
+        <v>412</v>
       </c>
       <c r="M65" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="N65" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B66" s="1">
-        <v>37489</v>
+        <v>17179</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>14</v>
@@ -8402,22 +8408,22 @@
         <v>166</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="I66" s="2">
-        <v>9.0105436759999993</v>
+        <v>8.4712890299999994</v>
       </c>
       <c r="J66" s="1">
-        <v>33218</v>
+        <v>31230</v>
       </c>
       <c r="K66" s="1">
-        <v>0.39874463300000001</v>
+        <v>0.222428979</v>
       </c>
       <c r="L66" s="1">
-        <v>1470</v>
+        <v>820</v>
       </c>
       <c r="M66" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="N66" s="1" t="s">
         <v>1523</v>
@@ -8425,10 +8431,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B67" s="1">
-        <v>17555</v>
+        <v>37489</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>14</v>
@@ -8437,28 +8443,28 @@
         <v>76</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>203</v>
+        <v>165</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>204</v>
+        <v>166</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="I67" s="2">
-        <v>25.635753560000001</v>
+        <v>9.0105436759999993</v>
       </c>
       <c r="J67" s="1">
-        <v>94508</v>
+        <v>33218</v>
       </c>
       <c r="K67" s="1">
-        <v>8.0833946000000004E-2</v>
+        <v>0.39874463300000001</v>
       </c>
       <c r="L67" s="1">
-        <v>298</v>
+        <v>1470</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N67" s="1" t="s">
         <v>1523</v>
@@ -8466,10 +8472,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B68" s="1">
-        <v>17246</v>
+        <v>17555</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>14</v>
@@ -8478,42 +8484,39 @@
         <v>76</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>209</v>
+        <v>203</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>204</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="I68" s="2">
-        <v>3.7869889900000002</v>
+        <v>25.635753560000001</v>
       </c>
       <c r="J68" s="1">
-        <v>13961</v>
+        <v>94508</v>
       </c>
       <c r="K68" s="1">
-        <v>0.45163932899999998</v>
+        <v>8.0833946000000004E-2</v>
       </c>
       <c r="L68" s="1">
-        <v>1665</v>
+        <v>298</v>
       </c>
       <c r="M68" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="O68" s="1" t="s">
-        <v>1533</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B69" s="1">
-        <v>131906</v>
+        <v>17246</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>14</v>
@@ -8522,42 +8525,42 @@
         <v>76</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="I69" s="2">
-        <v>5.6320644939999998</v>
+        <v>3.7869889900000002</v>
       </c>
       <c r="J69" s="1">
-        <v>20763</v>
+        <v>13961</v>
       </c>
       <c r="K69" s="1">
-        <v>0.515655474</v>
+        <v>0.45163932899999998</v>
       </c>
       <c r="L69" s="1">
-        <v>1901</v>
+        <v>1665</v>
       </c>
       <c r="M69" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="N69" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>1532</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B70" s="1">
-        <v>135687</v>
+        <v>131906</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>14</v>
@@ -8566,39 +8569,42 @@
         <v>76</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="I70" s="2">
-        <v>3.8341873340000001</v>
+        <v>5.6320644939999998</v>
       </c>
       <c r="J70" s="1">
-        <v>14135</v>
+        <v>20763</v>
       </c>
       <c r="K70" s="1">
-        <v>3.9331954000000002E-2</v>
+        <v>0.515655474</v>
       </c>
       <c r="L70" s="1">
-        <v>145</v>
+        <v>1901</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="N70" s="1" t="s">
         <v>1525</v>
       </c>
+      <c r="O70" s="1" t="s">
+        <v>1532</v>
+      </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B71" s="1">
-        <v>116153</v>
+        <v>135687</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>14</v>
@@ -8607,39 +8613,39 @@
         <v>76</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="I71" s="2">
-        <v>5.0708382050000003</v>
+        <v>3.8341873340000001</v>
       </c>
       <c r="J71" s="1">
-        <v>18694</v>
+        <v>14135</v>
       </c>
       <c r="K71" s="1">
-        <v>0.250639483</v>
+        <v>3.9331954000000002E-2</v>
       </c>
       <c r="L71" s="1">
-        <v>924</v>
+        <v>145</v>
       </c>
       <c r="M71" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B72" s="1">
-        <v>116149</v>
+        <v>116153</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>14</v>
@@ -8650,37 +8656,37 @@
       <c r="E72" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="1" t="s">
         <v>224</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I72" s="2">
-        <v>8.5806047359999997</v>
+        <v>5.0708382050000003</v>
       </c>
       <c r="J72" s="1">
-        <v>31633</v>
+        <v>18694</v>
       </c>
       <c r="K72" s="1">
-        <v>0.20479741300000001</v>
+        <v>0.250639483</v>
       </c>
       <c r="L72" s="1">
-        <v>755</v>
+        <v>924</v>
       </c>
       <c r="M72" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B73" s="1">
-        <v>23114</v>
+        <v>116149</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>14</v>
@@ -8689,39 +8695,39 @@
         <v>76</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>224</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="I73" s="2">
-        <v>5.5338702370000004</v>
+        <v>8.5806047359999997</v>
       </c>
       <c r="J73" s="1">
-        <v>20401</v>
+        <v>31633</v>
       </c>
       <c r="K73" s="1">
-        <v>9.3040414000000002E-2</v>
+        <v>0.20479741300000001</v>
       </c>
       <c r="L73" s="1">
-        <v>343</v>
+        <v>755</v>
       </c>
       <c r="M73" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B74" s="1">
-        <v>26483</v>
+        <v>23114</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>14</v>
@@ -8730,28 +8736,28 @@
         <v>76</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I74" s="2">
-        <v>4.0910656789999997</v>
+        <v>5.5338702370000004</v>
       </c>
       <c r="J74" s="1">
-        <v>15082</v>
+        <v>20401</v>
       </c>
       <c r="K74" s="1">
-        <v>0.146748875</v>
+        <v>9.3040414000000002E-2</v>
       </c>
       <c r="L74" s="1">
-        <v>541</v>
+        <v>343</v>
       </c>
       <c r="M74" s="1" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N74" s="1" t="s">
         <v>1523</v>
@@ -8759,10 +8765,10 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B75" s="1">
-        <v>26499</v>
+        <v>26483</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>14</v>
@@ -8773,67 +8779,67 @@
       <c r="E75" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="1" t="s">
         <v>237</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I75" s="2">
-        <v>4.3899885259999998</v>
+        <v>4.0910656789999997</v>
       </c>
       <c r="J75" s="1">
-        <v>16184</v>
+        <v>15082</v>
       </c>
       <c r="K75" s="1">
-        <v>0.14457883599999999</v>
+        <v>0.146748875</v>
       </c>
       <c r="L75" s="1">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B76" s="1">
-        <v>106080</v>
+        <v>26499</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I76" s="2">
-        <v>4.871194633</v>
+        <v>4.3899885259999998</v>
       </c>
       <c r="J76" s="1">
-        <v>17958</v>
+        <v>16184</v>
       </c>
       <c r="K76" s="1">
-        <v>2.8210505E-2</v>
+        <v>0.14457883599999999</v>
       </c>
       <c r="L76" s="1">
-        <v>104</v>
+        <v>533</v>
       </c>
       <c r="M76" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="N76" s="1" t="s">
         <v>1525</v>
@@ -8841,10 +8847,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B77" s="1">
-        <v>136100</v>
+        <v>106080</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>14</v>
@@ -8853,39 +8859,39 @@
         <v>244</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>254</v>
+        <v>245</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>246</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="I77" s="2">
-        <v>11.177869940000001</v>
+        <v>4.871194633</v>
       </c>
       <c r="J77" s="1">
-        <v>41208</v>
+        <v>17958</v>
       </c>
       <c r="K77" s="1">
-        <v>0.19286220000000001</v>
+        <v>2.8210505E-2</v>
       </c>
       <c r="L77" s="1">
-        <v>711</v>
+        <v>104</v>
       </c>
       <c r="M77" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B78" s="1">
-        <v>136101</v>
+        <v>136100</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>14</v>
@@ -8896,37 +8902,37 @@
       <c r="E78" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="1" t="s">
         <v>254</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I78" s="2">
-        <v>15.04081029</v>
+        <v>11.177869940000001</v>
       </c>
       <c r="J78" s="1">
-        <v>55449</v>
+        <v>41208</v>
       </c>
       <c r="K78" s="1">
-        <v>0.178485693</v>
+        <v>0.19286220000000001</v>
       </c>
       <c r="L78" s="1">
-        <v>658</v>
+        <v>711</v>
       </c>
       <c r="M78" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B79" s="1">
-        <v>90168</v>
+        <v>136101</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>14</v>
@@ -8935,39 +8941,39 @@
         <v>244</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>254</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="I79" s="2">
-        <v>4.9965143750000003</v>
+        <v>15.04081029</v>
       </c>
       <c r="J79" s="1">
-        <v>18420</v>
+        <v>55449</v>
       </c>
       <c r="K79" s="1">
-        <v>0.39494706499999999</v>
+        <v>0.178485693</v>
       </c>
       <c r="L79" s="1">
-        <v>1456</v>
+        <v>658</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B80" s="1">
-        <v>116131</v>
+        <v>90168</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>14</v>
@@ -8978,37 +8984,37 @@
       <c r="E80" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="1" t="s">
         <v>262</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I80" s="2">
-        <v>10.467995999999999</v>
+        <v>4.9965143750000003</v>
       </c>
       <c r="J80" s="1">
-        <v>38591</v>
+        <v>18420</v>
       </c>
       <c r="K80" s="1">
-        <v>0.230566624</v>
+        <v>0.39494706499999999</v>
       </c>
       <c r="L80" s="1">
-        <v>850</v>
+        <v>1456</v>
       </c>
       <c r="M80" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B81" s="1">
-        <v>120054</v>
+        <v>116131</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>14</v>
@@ -9023,22 +9029,22 @@
         <v>262</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I81" s="2">
-        <v>11.89561028</v>
+        <v>10.467995999999999</v>
       </c>
       <c r="J81" s="1">
-        <v>43854</v>
+        <v>38591</v>
       </c>
       <c r="K81" s="1">
-        <v>0.28861516300000001</v>
+        <v>0.230566624</v>
       </c>
       <c r="L81" s="1">
-        <v>1064</v>
+        <v>850</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="N81" s="1" t="s">
         <v>1525</v>
@@ -9046,10 +9052,10 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B82" s="1">
-        <v>144385</v>
+        <v>120054</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>14</v>
@@ -9058,39 +9064,39 @@
         <v>244</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="F82" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="I82" s="2">
-        <v>5.4817893059999996</v>
+        <v>11.89561028</v>
       </c>
       <c r="J82" s="1">
-        <v>20209</v>
+        <v>43854</v>
       </c>
       <c r="K82" s="1">
-        <v>2.4141682000000001E-2</v>
+        <v>0.28861516300000001</v>
       </c>
       <c r="L82" s="1">
-        <v>89</v>
+        <v>1064</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B83" s="1">
-        <v>142373</v>
+        <v>144385</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>14</v>
@@ -9099,28 +9105,28 @@
         <v>244</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I83" s="2">
-        <v>5.0721944790000002</v>
+        <v>5.4817893059999996</v>
       </c>
       <c r="J83" s="1">
-        <v>18699</v>
+        <v>20209</v>
       </c>
       <c r="K83" s="1">
-        <v>2.0886623999999999E-2</v>
+        <v>2.4141682000000001E-2</v>
       </c>
       <c r="L83" s="1">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="N83" s="1" t="s">
         <v>1523</v>
@@ -9128,10 +9134,10 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B84" s="1">
-        <v>7145</v>
+        <v>142373</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>14</v>
@@ -9140,28 +9146,28 @@
         <v>244</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="I84" s="2">
-        <v>25.00427226</v>
+        <v>5.0721944790000002</v>
       </c>
       <c r="J84" s="1">
-        <v>92180</v>
+        <v>18699</v>
       </c>
       <c r="K84" s="1">
-        <v>0.20018608099999999</v>
+        <v>2.0886623999999999E-2</v>
       </c>
       <c r="L84" s="1">
-        <v>738</v>
+        <v>77</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="N84" s="1" t="s">
         <v>1523</v>
@@ -9169,10 +9175,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>68</v>
+        <v>286</v>
+      </c>
+      <c r="B85" s="1">
+        <v>7145</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>14</v>
@@ -9183,81 +9189,81 @@
       <c r="E85" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="1" t="s">
         <v>283</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="I85" s="2">
-        <v>6.674225635</v>
+        <v>25.00427226</v>
       </c>
       <c r="J85" s="1">
-        <v>24605</v>
+        <v>92180</v>
       </c>
       <c r="K85" s="1">
-        <v>0.41556243300000001</v>
+        <v>0.20018608099999999</v>
       </c>
       <c r="L85" s="1">
-        <v>1532</v>
+        <v>738</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>1525</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>1534</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="B86" s="1">
-        <v>135598</v>
+        <v>281</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>290</v>
+        <v>244</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="F86" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>283</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="I86" s="2">
-        <v>13.1458239</v>
+        <v>6.674225635</v>
       </c>
       <c r="J86" s="1">
-        <v>48463</v>
+        <v>24605</v>
       </c>
       <c r="K86" s="1">
-        <v>0.10443311800000001</v>
+        <v>0.41556243300000001</v>
       </c>
       <c r="L86" s="1">
-        <v>385</v>
+        <v>1532</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
+      </c>
+      <c r="O86" s="1" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B87" s="1">
-        <v>17806</v>
+        <v>135598</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>14</v>
@@ -9266,39 +9272,39 @@
         <v>290</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>297</v>
+        <v>291</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>292</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="I87" s="2">
-        <v>5.9103719720000001</v>
+        <v>13.1458239</v>
       </c>
       <c r="J87" s="1">
-        <v>21789</v>
+        <v>48463</v>
       </c>
       <c r="K87" s="1">
-        <v>0.104975628</v>
+        <v>0.10443311800000001</v>
       </c>
       <c r="L87" s="1">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="M87" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B88" s="1">
-        <v>76694</v>
+        <v>17806</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>14</v>
@@ -9309,37 +9315,37 @@
       <c r="E88" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="2" t="s">
         <v>297</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="I88" s="2">
-        <v>6.9886100090000003</v>
+        <v>5.9103719720000001</v>
       </c>
       <c r="J88" s="1">
-        <v>25764</v>
+        <v>21789</v>
       </c>
       <c r="K88" s="1">
-        <v>0.118809625</v>
+        <v>0.104975628</v>
       </c>
       <c r="L88" s="1">
-        <v>438</v>
+        <v>387</v>
       </c>
       <c r="M88" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B89" s="1">
-        <v>62829</v>
+        <v>76694</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>14</v>
@@ -9348,28 +9354,28 @@
         <v>290</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I89" s="2">
-        <v>5.6833316610000004</v>
+        <v>6.9886100090000003</v>
       </c>
       <c r="J89" s="1">
-        <v>20952</v>
+        <v>25764</v>
       </c>
       <c r="K89" s="1">
-        <v>4.1501992000000001E-2</v>
+        <v>0.118809625</v>
       </c>
       <c r="L89" s="1">
-        <v>153</v>
+        <v>438</v>
       </c>
       <c r="M89" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="N89" s="1" t="s">
         <v>1523</v>
@@ -9377,10 +9383,10 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B90" s="1">
-        <v>62833</v>
+        <v>62829</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>14</v>
@@ -9391,37 +9397,37 @@
       <c r="E90" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="1" t="s">
         <v>308</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="I90" s="2">
-        <v>10.97741261</v>
+        <v>5.6833316610000004</v>
       </c>
       <c r="J90" s="1">
-        <v>40469</v>
+        <v>20952</v>
       </c>
       <c r="K90" s="1">
-        <v>4.3400776000000002E-2</v>
+        <v>4.1501992000000001E-2</v>
       </c>
       <c r="L90" s="1">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="M90" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B91" s="1">
-        <v>135581</v>
+        <v>62833</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>14</v>
@@ -9430,39 +9436,39 @@
         <v>290</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F91" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>308</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I91" s="2">
-        <v>11.59288987</v>
+        <v>10.97741261</v>
       </c>
       <c r="J91" s="1">
-        <v>42738</v>
+        <v>40469</v>
       </c>
       <c r="K91" s="1">
-        <v>0.14213754200000001</v>
+        <v>4.3400776000000002E-2</v>
       </c>
       <c r="L91" s="1">
-        <v>524</v>
+        <v>160</v>
       </c>
       <c r="M91" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
+      </c>
+      <c r="B92" s="1">
+        <v>135581</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>14</v>
@@ -9471,28 +9477,28 @@
         <v>290</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I92" s="2">
-        <v>5.1145102360000001</v>
+        <v>11.59288987</v>
       </c>
       <c r="J92" s="1">
-        <v>18855</v>
+        <v>42738</v>
       </c>
       <c r="K92" s="1">
-        <v>0.190963416</v>
+        <v>0.14213754200000001</v>
       </c>
       <c r="L92" s="1">
-        <v>704</v>
+        <v>524</v>
       </c>
       <c r="M92" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="N92" s="1" t="s">
         <v>1523</v>
@@ -9500,10 +9506,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>14</v>
@@ -9512,28 +9518,28 @@
         <v>290</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="I93" s="2">
-        <v>31.886279120000001</v>
+        <v>5.1145102360000001</v>
       </c>
       <c r="J93" s="1">
-        <v>117551</v>
+        <v>18855</v>
       </c>
       <c r="K93" s="1">
-        <v>0.10117806</v>
+        <v>0.190963416</v>
       </c>
       <c r="L93" s="1">
-        <v>373</v>
+        <v>704</v>
       </c>
       <c r="M93" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>1523</v>
@@ -9541,40 +9547,40 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B94" s="1">
-        <v>43792</v>
+        <v>324</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>324</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="I94" s="2">
-        <v>12.54607942</v>
+        <v>31.886279120000001</v>
       </c>
       <c r="J94" s="1">
-        <v>46252</v>
+        <v>117551</v>
       </c>
       <c r="K94" s="1">
-        <v>7.2425046000000007E-2</v>
+        <v>0.10117806</v>
       </c>
       <c r="L94" s="1">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="M94" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="N94" s="1" t="s">
         <v>1523</v>
@@ -9582,10 +9588,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B95" s="1">
-        <v>45381</v>
+        <v>43792</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>14</v>
@@ -9596,37 +9602,37 @@
       <c r="E95" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="F95" s="1" t="s">
         <v>332</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="I95" s="2">
-        <v>14.20236154</v>
+        <v>12.54607942</v>
       </c>
       <c r="J95" s="1">
-        <v>52358</v>
+        <v>46252</v>
       </c>
       <c r="K95" s="1">
-        <v>8.1105201000000002E-2</v>
+        <v>7.2425046000000007E-2</v>
       </c>
       <c r="L95" s="1">
-        <v>299</v>
+        <v>267</v>
       </c>
       <c r="M95" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="N95" s="1" t="s">
-        <v>1525</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B96" s="1">
-        <v>24892</v>
+        <v>45381</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>14</v>
@@ -9635,31 +9641,31 @@
         <v>330</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="F96" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>332</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="I96" s="2">
-        <v>8.5751796389999999</v>
+        <v>14.20236154</v>
       </c>
       <c r="J96" s="1">
-        <v>31613</v>
+        <v>52358</v>
       </c>
       <c r="K96" s="1">
-        <v>4.3400776000000002E-2</v>
+        <v>8.1105201000000002E-2</v>
       </c>
       <c r="L96" s="1">
-        <v>160</v>
+        <v>299</v>
       </c>
       <c r="M96" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="N96" s="1" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -12535,6 +12541,9 @@
       <c r="G165" s="1" t="s">
         <v>628</v>
       </c>
+      <c r="H165" s="1" t="s">
+        <v>1558</v>
+      </c>
       <c r="I165" s="2">
         <v>3.3198881340000002</v>
       </c>
@@ -12597,10 +12606,10 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>633</v>
+        <v>702</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>633</v>
+        <v>702</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>14</v>
@@ -12609,28 +12618,28 @@
         <v>625</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="F167" s="2" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="I167" s="2">
-        <v>3.5805640470000002</v>
+        <v>3.3630176559999998</v>
       </c>
       <c r="J167" s="1">
-        <v>13200</v>
+        <v>12398</v>
       </c>
       <c r="K167" s="1">
-        <v>0.193947219</v>
+        <v>0.17387436000000001</v>
       </c>
       <c r="L167" s="1">
-        <v>715</v>
-      </c>
-      <c r="M167" s="1" t="s">
-        <v>635</v>
+        <v>641</v>
+      </c>
+      <c r="M167" s="3" t="s">
+        <v>706</v>
       </c>
       <c r="N167" s="1" t="s">
         <v>1524</v>
@@ -12638,10 +12647,10 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>636</v>
+        <v>792</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>636</v>
+        <v>792</v>
       </c>
       <c r="C168" s="1" t="s">
         <v>14</v>
@@ -12650,39 +12659,39 @@
         <v>625</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F168" s="2" t="s">
-        <v>627</v>
+        <v>793</v>
+      </c>
+      <c r="F168" s="1" t="s">
+        <v>794</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>637</v>
+        <v>795</v>
       </c>
       <c r="I168" s="2">
-        <v>3.6470214859999999</v>
+        <v>3.3939407089999998</v>
       </c>
       <c r="J168" s="1">
-        <v>13445</v>
+        <v>12512</v>
       </c>
       <c r="K168" s="1">
-        <v>0.18011322199999999</v>
+        <v>0.167092989</v>
       </c>
       <c r="L168" s="1">
-        <v>664</v>
-      </c>
-      <c r="M168" s="1" t="s">
-        <v>638</v>
-      </c>
-      <c r="N168" s="1" t="s">
-        <v>1524</v>
+        <v>616</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="N168" s="3" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>639</v>
+        <v>707</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>639</v>
+        <v>707</v>
       </c>
       <c r="C169" s="1" t="s">
         <v>14</v>
@@ -12691,28 +12700,28 @@
         <v>625</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>626</v>
+        <v>703</v>
       </c>
       <c r="F169" s="2" t="s">
-        <v>627</v>
+        <v>704</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>640</v>
+        <v>708</v>
       </c>
       <c r="I169" s="2">
-        <v>3.7281266870000001</v>
+        <v>3.4603981479999999</v>
       </c>
       <c r="J169" s="1">
-        <v>13744</v>
+        <v>12757</v>
       </c>
       <c r="K169" s="1">
-        <v>0.20561117800000001</v>
+        <v>0.17495938</v>
       </c>
       <c r="L169" s="1">
-        <v>758</v>
+        <v>645</v>
       </c>
       <c r="M169" s="1" t="s">
-        <v>641</v>
+        <v>709</v>
       </c>
       <c r="N169" s="1" t="s">
         <v>1524</v>
@@ -12720,10 +12729,10 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>642</v>
+        <v>861</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>642</v>
+        <v>861</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>14</v>
@@ -12732,39 +12741,39 @@
         <v>625</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>627</v>
+        <v>862</v>
+      </c>
+      <c r="F170" s="1" t="s">
+        <v>863</v>
       </c>
       <c r="G170" s="1" t="s">
-        <v>643</v>
+        <v>864</v>
       </c>
       <c r="I170" s="2">
-        <v>3.9144787700000001</v>
+        <v>3.5339082130000001</v>
       </c>
       <c r="J170" s="1">
-        <v>14431</v>
+        <v>13028</v>
       </c>
       <c r="K170" s="1">
-        <v>0.21510509799999999</v>
+        <v>0.23653423100000001</v>
       </c>
       <c r="L170" s="1">
-        <v>793</v>
-      </c>
-      <c r="M170" s="1" t="s">
-        <v>644</v>
-      </c>
-      <c r="N170" s="1" t="s">
-        <v>1524</v>
+        <v>872</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="N170" s="3" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>645</v>
+        <v>633</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>14</v>
@@ -12779,22 +12788,22 @@
         <v>627</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
       <c r="I171" s="2">
-        <v>3.9603208400000001</v>
+        <v>3.5805640470000002</v>
       </c>
       <c r="J171" s="1">
-        <v>14600</v>
+        <v>13200</v>
       </c>
       <c r="K171" s="1">
-        <v>0.202084865</v>
+        <v>0.193947219</v>
       </c>
       <c r="L171" s="1">
-        <v>745</v>
+        <v>715</v>
       </c>
       <c r="M171" s="1" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
       <c r="N171" s="1" t="s">
         <v>1524</v>
@@ -12802,10 +12811,10 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>648</v>
+        <v>797</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>648</v>
+        <v>797</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>14</v>
@@ -12814,39 +12823,39 @@
         <v>625</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>626</v>
+        <v>793</v>
       </c>
       <c r="F172" s="2" t="s">
-        <v>627</v>
+        <v>794</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>649</v>
+        <v>798</v>
       </c>
       <c r="I172" s="2">
-        <v>3.9784949150000002</v>
+        <v>3.582191576</v>
       </c>
       <c r="J172" s="1">
-        <v>14667</v>
+        <v>13206</v>
       </c>
       <c r="K172" s="1">
-        <v>0.21700388200000001</v>
+        <v>0.11609707700000001</v>
       </c>
       <c r="L172" s="1">
-        <v>800</v>
-      </c>
-      <c r="M172" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="N172" s="1" t="s">
-        <v>1524</v>
+        <v>428</v>
+      </c>
+      <c r="M172" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>651</v>
+        <v>887</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>651</v>
+        <v>887</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>14</v>
@@ -12855,28 +12864,28 @@
         <v>625</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>626</v>
+        <v>888</v>
       </c>
       <c r="F173" s="2" t="s">
-        <v>627</v>
+        <v>889</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>652</v>
+        <v>890</v>
       </c>
       <c r="I173" s="2">
-        <v>58.706602609999997</v>
+        <v>3.6006369060000001</v>
       </c>
       <c r="J173" s="1">
-        <v>216426</v>
+        <v>13274</v>
       </c>
       <c r="K173" s="1">
-        <v>5.8319793000000002E-2</v>
+        <v>0.143222562</v>
       </c>
       <c r="L173" s="1">
-        <v>215</v>
-      </c>
-      <c r="M173" s="1" t="s">
-        <v>653</v>
+        <v>528</v>
+      </c>
+      <c r="M173" s="3" t="s">
+        <v>891</v>
       </c>
       <c r="N173" s="1" t="s">
         <v>1524</v>
@@ -12884,10 +12893,10 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="B174" s="1">
-        <v>16399</v>
+        <v>866</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>866</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>14</v>
@@ -12896,28 +12905,28 @@
         <v>625</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>655</v>
+        <v>862</v>
       </c>
       <c r="F174" s="2" t="s">
-        <v>656</v>
+        <v>863</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>657</v>
+        <v>867</v>
       </c>
       <c r="I174" s="2">
-        <v>3.870264229</v>
+        <v>3.6041632190000001</v>
       </c>
       <c r="J174" s="1">
-        <v>14268</v>
+        <v>13287</v>
       </c>
       <c r="K174" s="1">
-        <v>0.80372812699999996</v>
+        <v>0.20398364899999999</v>
       </c>
       <c r="L174" s="1">
-        <v>2963</v>
+        <v>752</v>
       </c>
       <c r="M174" s="1" t="s">
-        <v>658</v>
+        <v>868</v>
       </c>
       <c r="N174" s="1" t="s">
         <v>1524</v>
@@ -12925,10 +12934,10 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="B175" s="1">
-        <v>127471</v>
+        <v>766</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>766</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>14</v>
@@ -12937,28 +12946,28 @@
         <v>625</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>655</v>
+        <v>767</v>
       </c>
       <c r="F175" s="2" t="s">
-        <v>656</v>
+        <v>768</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>660</v>
+        <v>769</v>
       </c>
       <c r="I175" s="2">
-        <v>4.1870898969999999</v>
+        <v>3.6117583550000001</v>
       </c>
       <c r="J175" s="1">
-        <v>15436</v>
+        <v>13315</v>
       </c>
       <c r="K175" s="1">
-        <v>0.17658690899999999</v>
+        <v>0.30841676699999998</v>
       </c>
       <c r="L175" s="1">
-        <v>651</v>
-      </c>
-      <c r="M175" s="1" t="s">
-        <v>661</v>
+        <v>1137</v>
+      </c>
+      <c r="M175" s="3" t="s">
+        <v>770</v>
       </c>
       <c r="N175" s="1" t="s">
         <v>1524</v>
@@ -12966,10 +12975,10 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>662</v>
-      </c>
-      <c r="B176" s="1">
-        <v>113881</v>
+        <v>636</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>636</v>
       </c>
       <c r="C176" s="1" t="s">
         <v>14</v>
@@ -12978,28 +12987,28 @@
         <v>625</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>663</v>
+        <v>637</v>
       </c>
       <c r="I176" s="2">
-        <v>5.1164090199999999</v>
+        <v>3.6470214859999999</v>
       </c>
       <c r="J176" s="1">
-        <v>18862</v>
+        <v>13445</v>
       </c>
       <c r="K176" s="1">
-        <v>0.85879286200000005</v>
+        <v>0.18011322199999999</v>
       </c>
       <c r="L176" s="1">
-        <v>3166</v>
+        <v>664</v>
       </c>
       <c r="M176" s="1" t="s">
-        <v>664</v>
+        <v>638</v>
       </c>
       <c r="N176" s="1" t="s">
         <v>1524</v>
@@ -13007,10 +13016,10 @@
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>665</v>
-      </c>
-      <c r="B177" s="1">
-        <v>132170</v>
+        <v>771</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>771</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>14</v>
@@ -13019,28 +13028,28 @@
         <v>625</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>655</v>
+        <v>767</v>
       </c>
       <c r="F177" s="2" t="s">
-        <v>656</v>
+        <v>768</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>666</v>
+        <v>772</v>
       </c>
       <c r="I177" s="2">
-        <v>5.2712955399999997</v>
+        <v>3.6972036340000001</v>
       </c>
       <c r="J177" s="1">
-        <v>19433</v>
+        <v>13630</v>
       </c>
       <c r="K177" s="1">
-        <v>1.0554526289999999</v>
+        <v>0.27912124300000002</v>
       </c>
       <c r="L177" s="1">
-        <v>3891</v>
+        <v>1029</v>
       </c>
       <c r="M177" s="1" t="s">
-        <v>667</v>
+        <v>773</v>
       </c>
       <c r="N177" s="1" t="s">
         <v>1524</v>
@@ -13048,10 +13057,10 @@
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>668</v>
-      </c>
-      <c r="B178" s="1">
-        <v>119781</v>
+        <v>710</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>710</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>14</v>
@@ -13060,28 +13069,28 @@
         <v>625</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="F178" s="2" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>669</v>
+        <v>711</v>
       </c>
       <c r="I178" s="2">
-        <v>5.3751861490000001</v>
+        <v>3.7202602960000002</v>
       </c>
       <c r="J178" s="1">
-        <v>19816</v>
+        <v>13715</v>
       </c>
       <c r="K178" s="1">
-        <v>1.2545536909999999</v>
+        <v>0.193947219</v>
       </c>
       <c r="L178" s="1">
-        <v>4625</v>
+        <v>715</v>
       </c>
       <c r="M178" s="1" t="s">
-        <v>670</v>
+        <v>712</v>
       </c>
       <c r="N178" s="1" t="s">
         <v>1524</v>
@@ -13089,10 +13098,10 @@
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="B179" s="1">
-        <v>15864</v>
+        <v>639</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>639</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>14</v>
@@ -13101,28 +13110,28 @@
         <v>625</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>655</v>
+        <v>626</v>
       </c>
       <c r="F179" s="2" t="s">
-        <v>656</v>
+        <v>627</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="I179" s="2">
-        <v>5.5873074430000003</v>
+        <v>3.7281266870000001</v>
       </c>
       <c r="J179" s="1">
-        <v>20598</v>
+        <v>13744</v>
       </c>
       <c r="K179" s="1">
-        <v>1.0551813750000001</v>
+        <v>0.20561117800000001</v>
       </c>
       <c r="L179" s="1">
-        <v>3890</v>
+        <v>758</v>
       </c>
       <c r="M179" s="1" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="N179" s="1" t="s">
         <v>1524</v>
@@ -13130,10 +13139,10 @@
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>674</v>
-      </c>
-      <c r="B180" s="1">
-        <v>129353</v>
+        <v>774</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>774</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>14</v>
@@ -13142,28 +13151,28 @@
         <v>625</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>655</v>
+        <v>767</v>
       </c>
       <c r="F180" s="2" t="s">
-        <v>656</v>
+        <v>768</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>675</v>
+        <v>775</v>
       </c>
       <c r="I180" s="2">
-        <v>7.5351885359999997</v>
+        <v>3.7400619000000002</v>
       </c>
       <c r="J180" s="1">
-        <v>27779</v>
+        <v>13788</v>
       </c>
       <c r="K180" s="1">
-        <v>0.19367596400000001</v>
+        <v>0.28346132000000002</v>
       </c>
       <c r="L180" s="1">
-        <v>714</v>
+        <v>1045</v>
       </c>
       <c r="M180" s="1" t="s">
-        <v>676</v>
+        <v>776</v>
       </c>
       <c r="N180" s="1" t="s">
         <v>1524</v>
@@ -13171,10 +13180,10 @@
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>677</v>
-      </c>
-      <c r="B181" s="1">
-        <v>165722</v>
+        <v>869</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>869</v>
       </c>
       <c r="C181" s="1" t="s">
         <v>14</v>
@@ -13183,28 +13192,28 @@
         <v>625</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>655</v>
+        <v>862</v>
       </c>
       <c r="F181" s="2" t="s">
-        <v>656</v>
+        <v>863</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>678</v>
+        <v>870</v>
       </c>
       <c r="I181" s="2">
-        <v>7.6176500110000003</v>
+        <v>3.7495558199999999</v>
       </c>
       <c r="J181" s="1">
-        <v>28083</v>
+        <v>13823</v>
       </c>
       <c r="K181" s="1">
-        <v>1.1737197450000001</v>
+        <v>0.22812533099999999</v>
       </c>
       <c r="L181" s="1">
-        <v>4327</v>
-      </c>
-      <c r="M181" s="1" t="s">
-        <v>679</v>
+        <v>841</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>871</v>
       </c>
       <c r="N181" s="1" t="s">
         <v>1524</v>
@@ -13212,10 +13221,10 @@
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
-        <v>680</v>
-      </c>
-      <c r="B182" s="1">
-        <v>119833</v>
+        <v>892</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>892</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>14</v>
@@ -13224,28 +13233,28 @@
         <v>625</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>655</v>
+        <v>888</v>
       </c>
       <c r="F182" s="2" t="s">
-        <v>656</v>
+        <v>889</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>681</v>
+        <v>893</v>
       </c>
       <c r="I182" s="2">
-        <v>8.7954385780000006</v>
+        <v>3.7837339320000001</v>
       </c>
       <c r="J182" s="1">
-        <v>32425</v>
+        <v>13949</v>
       </c>
       <c r="K182" s="1">
-        <v>0.84957019700000003</v>
+        <v>0.135356171</v>
       </c>
       <c r="L182" s="1">
-        <v>3132</v>
+        <v>499</v>
       </c>
       <c r="M182" s="1" t="s">
-        <v>682</v>
+        <v>894</v>
       </c>
       <c r="N182" s="1" t="s">
         <v>1524</v>
@@ -13253,10 +13262,10 @@
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="B183" s="1">
-        <v>16580</v>
+        <v>713</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>713</v>
       </c>
       <c r="C183" s="1" t="s">
         <v>14</v>
@@ -13265,28 +13274,28 @@
         <v>625</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="F183" s="2" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>684</v>
+        <v>714</v>
       </c>
       <c r="I183" s="2">
-        <v>20.017523059999998</v>
+        <v>3.8008229870000001</v>
       </c>
       <c r="J183" s="1">
-        <v>73796</v>
+        <v>14012</v>
       </c>
       <c r="K183" s="1">
-        <v>0.57641656100000005</v>
+        <v>0.21157878499999999</v>
       </c>
       <c r="L183" s="1">
-        <v>2125</v>
+        <v>780</v>
       </c>
       <c r="M183" s="1" t="s">
-        <v>685</v>
+        <v>715</v>
       </c>
       <c r="N183" s="1" t="s">
         <v>1524</v>
@@ -13294,10 +13303,10 @@
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>686</v>
-      </c>
-      <c r="B184" s="1">
-        <v>16383</v>
+        <v>716</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>716</v>
       </c>
       <c r="C184" s="1" t="s">
         <v>14</v>
@@ -13306,28 +13315,28 @@
         <v>625</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>655</v>
+        <v>703</v>
       </c>
       <c r="F184" s="2" t="s">
-        <v>656</v>
+        <v>704</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>687</v>
+        <v>717</v>
       </c>
       <c r="I184" s="2">
-        <v>29.076621360000001</v>
+        <v>3.808689378</v>
       </c>
       <c r="J184" s="1">
-        <v>107193</v>
+        <v>14041</v>
       </c>
       <c r="K184" s="1">
-        <v>0.54332346899999995</v>
+        <v>0.198829807</v>
       </c>
       <c r="L184" s="1">
-        <v>2003</v>
+        <v>733</v>
       </c>
       <c r="M184" s="1" t="s">
-        <v>688</v>
+        <v>718</v>
       </c>
       <c r="N184" s="1" t="s">
         <v>1524</v>
@@ -13335,10 +13344,10 @@
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>689</v>
+        <v>654</v>
       </c>
       <c r="B185" s="1">
-        <v>16538</v>
+        <v>16399</v>
       </c>
       <c r="C185" s="1" t="s">
         <v>14</v>
@@ -13353,22 +13362,22 @@
         <v>656</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>690</v>
+        <v>657</v>
       </c>
       <c r="I185" s="2">
-        <v>57.431433550000001</v>
+        <v>3.870264229</v>
       </c>
       <c r="J185" s="1">
-        <v>211725</v>
+        <v>14268</v>
       </c>
       <c r="K185" s="1">
-        <v>0.218631411</v>
+        <v>0.80372812699999996</v>
       </c>
       <c r="L185" s="1">
-        <v>806</v>
+        <v>2963</v>
       </c>
       <c r="M185" s="1" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="N185" s="1" t="s">
         <v>1524</v>
@@ -13376,10 +13385,10 @@
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>692</v>
-      </c>
-      <c r="B186" s="1">
-        <v>15551</v>
+        <v>642</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>642</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>14</v>
@@ -13388,28 +13397,28 @@
         <v>625</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>693</v>
+        <v>626</v>
       </c>
       <c r="F186" s="2" t="s">
-        <v>694</v>
+        <v>627</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>695</v>
+        <v>643</v>
       </c>
       <c r="I186" s="2">
-        <v>6.802800435</v>
+        <v>3.9144787700000001</v>
       </c>
       <c r="J186" s="1">
-        <v>25079</v>
+        <v>14431</v>
       </c>
       <c r="K186" s="1">
-        <v>1.077424272</v>
+        <v>0.21510509799999999</v>
       </c>
       <c r="L186" s="1">
-        <v>3972</v>
+        <v>793</v>
       </c>
       <c r="M186" s="1" t="s">
-        <v>696</v>
+        <v>644</v>
       </c>
       <c r="N186" s="1" t="s">
         <v>1524</v>
@@ -13417,10 +13426,10 @@
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>697</v>
-      </c>
-      <c r="B187" s="1">
-        <v>121981</v>
+        <v>645</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>645</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>14</v>
@@ -13429,28 +13438,28 @@
         <v>625</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>698</v>
+        <v>626</v>
       </c>
       <c r="F187" s="2" t="s">
-        <v>699</v>
+        <v>627</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>700</v>
+        <v>646</v>
       </c>
       <c r="I187" s="2">
-        <v>5.1671336769999998</v>
+        <v>3.9603208400000001</v>
       </c>
       <c r="J187" s="1">
-        <v>19049</v>
+        <v>14600</v>
       </c>
       <c r="K187" s="1">
-        <v>0.38463937999999998</v>
+        <v>0.202084865</v>
       </c>
       <c r="L187" s="1">
-        <v>1418</v>
+        <v>745</v>
       </c>
       <c r="M187" s="1" t="s">
-        <v>701</v>
+        <v>647</v>
       </c>
       <c r="N187" s="1" t="s">
         <v>1524</v>
@@ -13458,10 +13467,10 @@
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="C188" s="1" t="s">
         <v>14</v>
@@ -13470,28 +13479,28 @@
         <v>625</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>703</v>
+        <v>626</v>
       </c>
       <c r="F188" s="2" t="s">
-        <v>704</v>
+        <v>627</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>705</v>
+        <v>649</v>
       </c>
       <c r="I188" s="2">
-        <v>3.3630176559999998</v>
+        <v>3.9784949150000002</v>
       </c>
       <c r="J188" s="1">
-        <v>12398</v>
+        <v>14667</v>
       </c>
       <c r="K188" s="1">
-        <v>0.17387436000000001</v>
+        <v>0.21700388200000001</v>
       </c>
       <c r="L188" s="1">
-        <v>641</v>
-      </c>
-      <c r="M188" s="3" t="s">
-        <v>706</v>
+        <v>800</v>
+      </c>
+      <c r="M188" s="1" t="s">
+        <v>650</v>
       </c>
       <c r="N188" s="1" t="s">
         <v>1524</v>
@@ -13499,10 +13508,10 @@
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="1" t="s">
-        <v>707</v>
+        <v>895</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>707</v>
+        <v>895</v>
       </c>
       <c r="C189" s="1" t="s">
         <v>14</v>
@@ -13511,28 +13520,28 @@
         <v>625</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>703</v>
+        <v>888</v>
       </c>
       <c r="F189" s="2" t="s">
-        <v>704</v>
+        <v>889</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>708</v>
+        <v>896</v>
       </c>
       <c r="I189" s="2">
-        <v>3.4603981479999999</v>
+        <v>4.0425110599999998</v>
       </c>
       <c r="J189" s="1">
-        <v>12757</v>
+        <v>14903</v>
       </c>
       <c r="K189" s="1">
-        <v>0.17495938</v>
+        <v>9.7651746999999997E-2</v>
       </c>
       <c r="L189" s="1">
-        <v>645</v>
+        <v>360</v>
       </c>
       <c r="M189" s="1" t="s">
-        <v>709</v>
+        <v>897</v>
       </c>
       <c r="N189" s="1" t="s">
         <v>1524</v>
@@ -13540,10 +13549,10 @@
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>710</v>
+        <v>800</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>14</v>
@@ -13552,28 +13561,28 @@
         <v>625</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>703</v>
+        <v>793</v>
       </c>
       <c r="F190" s="2" t="s">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>711</v>
+        <v>801</v>
       </c>
       <c r="I190" s="2">
-        <v>3.7202602960000002</v>
+        <v>4.0737053679999997</v>
       </c>
       <c r="J190" s="1">
-        <v>13715</v>
+        <v>15018</v>
       </c>
       <c r="K190" s="1">
-        <v>0.193947219</v>
+        <v>0.150275188</v>
       </c>
       <c r="L190" s="1">
-        <v>715</v>
+        <v>554</v>
       </c>
       <c r="M190" s="1" t="s">
-        <v>712</v>
+        <v>802</v>
       </c>
       <c r="N190" s="1" t="s">
         <v>1524</v>
@@ -13581,10 +13590,10 @@
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
-        <v>713</v>
+        <v>898</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>713</v>
+        <v>898</v>
       </c>
       <c r="C191" s="1" t="s">
         <v>14</v>
@@ -13593,28 +13602,28 @@
         <v>625</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>703</v>
+        <v>888</v>
       </c>
       <c r="F191" s="2" t="s">
-        <v>704</v>
+        <v>889</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>714</v>
+        <v>899</v>
       </c>
       <c r="I191" s="2">
-        <v>3.8008229870000001</v>
+        <v>4.1442316300000002</v>
       </c>
       <c r="J191" s="1">
-        <v>14012</v>
+        <v>15278</v>
       </c>
       <c r="K191" s="1">
-        <v>0.21157878499999999</v>
+        <v>0.130744839</v>
       </c>
       <c r="L191" s="1">
-        <v>780</v>
+        <v>482</v>
       </c>
       <c r="M191" s="1" t="s">
-        <v>715</v>
+        <v>900</v>
       </c>
       <c r="N191" s="1" t="s">
         <v>1524</v>
@@ -13622,10 +13631,10 @@
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>716</v>
+        <v>659</v>
+      </c>
+      <c r="B192" s="1">
+        <v>127471</v>
       </c>
       <c r="C192" s="1" t="s">
         <v>14</v>
@@ -13634,28 +13643,28 @@
         <v>625</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>703</v>
+        <v>655</v>
       </c>
       <c r="F192" s="2" t="s">
-        <v>704</v>
+        <v>656</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>717</v>
+        <v>660</v>
       </c>
       <c r="I192" s="2">
-        <v>3.808689378</v>
+        <v>4.1870898969999999</v>
       </c>
       <c r="J192" s="1">
-        <v>14041</v>
+        <v>15436</v>
       </c>
       <c r="K192" s="1">
-        <v>0.198829807</v>
+        <v>0.17658690899999999</v>
       </c>
       <c r="L192" s="1">
-        <v>733</v>
+        <v>651</v>
       </c>
       <c r="M192" s="1" t="s">
-        <v>718</v>
+        <v>661</v>
       </c>
       <c r="N192" s="1" t="s">
         <v>1524</v>
@@ -13663,10 +13672,10 @@
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>719</v>
+        <v>803</v>
       </c>
       <c r="C193" s="1" t="s">
         <v>14</v>
@@ -13675,28 +13684,28 @@
         <v>625</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>703</v>
+        <v>793</v>
       </c>
       <c r="F193" s="2" t="s">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>720</v>
+        <v>804</v>
       </c>
       <c r="I193" s="2">
-        <v>4.389446016</v>
+        <v>4.2302194179999999</v>
       </c>
       <c r="J193" s="1">
-        <v>16182</v>
+        <v>15595</v>
       </c>
       <c r="K193" s="1">
-        <v>0.179299457</v>
+        <v>0.14783389399999999</v>
       </c>
       <c r="L193" s="1">
-        <v>661</v>
+        <v>545</v>
       </c>
       <c r="M193" s="1" t="s">
-        <v>721</v>
+        <v>805</v>
       </c>
       <c r="N193" s="1" t="s">
         <v>1524</v>
@@ -13704,10 +13713,10 @@
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>722</v>
+        <v>806</v>
       </c>
       <c r="C194" s="1" t="s">
         <v>14</v>
@@ -13716,28 +13725,28 @@
         <v>625</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>703</v>
+        <v>793</v>
       </c>
       <c r="F194" s="2" t="s">
-        <v>704</v>
+        <v>794</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>723</v>
+        <v>807</v>
       </c>
       <c r="I194" s="2">
-        <v>4.5795956679999996</v>
+        <v>4.2578874129999997</v>
       </c>
       <c r="J194" s="1">
-        <v>16883</v>
+        <v>15697</v>
       </c>
       <c r="K194" s="1">
-        <v>0.202627374</v>
+        <v>0.16166789200000001</v>
       </c>
       <c r="L194" s="1">
-        <v>747</v>
+        <v>596</v>
       </c>
       <c r="M194" s="1" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="N194" s="1" t="s">
         <v>1524</v>
@@ -13745,10 +13754,10 @@
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
-        <v>725</v>
+        <v>777</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>725</v>
+        <v>777</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>14</v>
@@ -13757,28 +13766,28 @@
         <v>625</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="F195" s="2" t="s">
-        <v>704</v>
+        <v>768</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>726</v>
+        <v>778</v>
       </c>
       <c r="I195" s="2">
-        <v>6.3413959320000002</v>
+        <v>4.3153934420000004</v>
       </c>
       <c r="J195" s="1">
-        <v>23378</v>
+        <v>15909</v>
       </c>
       <c r="K195" s="1">
-        <v>0.246570661</v>
+        <v>0.270441088</v>
       </c>
       <c r="L195" s="1">
-        <v>909</v>
+        <v>997</v>
       </c>
       <c r="M195" s="1" t="s">
-        <v>727</v>
+        <v>779</v>
       </c>
       <c r="N195" s="1" t="s">
         <v>1524</v>
@@ -13786,10 +13795,10 @@
     </row>
     <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
-        <v>728</v>
+        <v>780</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>728</v>
+        <v>780</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>14</v>
@@ -13798,28 +13807,28 @@
         <v>625</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>703</v>
+        <v>767</v>
       </c>
       <c r="F196" s="2" t="s">
-        <v>704</v>
+        <v>768</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>729</v>
+        <v>781</v>
       </c>
       <c r="I196" s="2">
-        <v>52.104259509999999</v>
+        <v>4.3503853179999998</v>
       </c>
       <c r="J196" s="1">
-        <v>192086</v>
+        <v>16038</v>
       </c>
       <c r="K196" s="1">
-        <v>5.9947321999999997E-2</v>
+        <v>0.30299166999999999</v>
       </c>
       <c r="L196" s="1">
-        <v>221</v>
+        <v>1117</v>
       </c>
       <c r="M196" s="1" t="s">
-        <v>730</v>
+        <v>782</v>
       </c>
       <c r="N196" s="1" t="s">
         <v>1524</v>
@@ -13827,10 +13836,10 @@
     </row>
     <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="B197" s="1">
-        <v>119302</v>
+        <v>719</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>719</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>14</v>
@@ -13839,28 +13848,28 @@
         <v>625</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="F197" s="2" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>734</v>
+        <v>720</v>
       </c>
       <c r="I197" s="2">
-        <v>5.4253682960000003</v>
+        <v>4.389446016</v>
       </c>
       <c r="J197" s="1">
-        <v>20001</v>
+        <v>16182</v>
       </c>
       <c r="K197" s="1">
-        <v>0.92877661300000003</v>
+        <v>0.179299457</v>
       </c>
       <c r="L197" s="1">
-        <v>3424</v>
+        <v>661</v>
       </c>
       <c r="M197" s="1" t="s">
-        <v>735</v>
+        <v>721</v>
       </c>
       <c r="N197" s="1" t="s">
         <v>1524</v>
@@ -13868,10 +13877,10 @@
     </row>
     <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="B198" s="1">
-        <v>125976</v>
+        <v>783</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>783</v>
       </c>
       <c r="C198" s="1" t="s">
         <v>14</v>
@@ -13880,28 +13889,28 @@
         <v>625</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>732</v>
+        <v>767</v>
       </c>
       <c r="F198" s="2" t="s">
-        <v>733</v>
+        <v>768</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>737</v>
+        <v>784</v>
       </c>
       <c r="I198" s="2">
-        <v>5.5938175589999997</v>
+        <v>4.505543093</v>
       </c>
       <c r="J198" s="1">
-        <v>20622</v>
+        <v>16610</v>
       </c>
       <c r="K198" s="1">
-        <v>0.19964357099999999</v>
+        <v>0.301092886</v>
       </c>
       <c r="L198" s="1">
-        <v>736</v>
+        <v>1110</v>
       </c>
       <c r="M198" s="1" t="s">
-        <v>738</v>
+        <v>785</v>
       </c>
       <c r="N198" s="1" t="s">
         <v>1524</v>
@@ -13909,10 +13918,10 @@
     </row>
     <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="1" t="s">
-        <v>739</v>
-      </c>
-      <c r="B199" s="1">
-        <v>121385</v>
+        <v>722</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>722</v>
       </c>
       <c r="C199" s="1" t="s">
         <v>14</v>
@@ -13921,28 +13930,28 @@
         <v>625</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>732</v>
+        <v>703</v>
       </c>
       <c r="F199" s="2" t="s">
-        <v>733</v>
+        <v>704</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>740</v>
+        <v>723</v>
       </c>
       <c r="I199" s="2">
-        <v>7.3100470079999997</v>
+        <v>4.5795956679999996</v>
       </c>
       <c r="J199" s="1">
-        <v>26949</v>
+        <v>16883</v>
       </c>
       <c r="K199" s="1">
-        <v>1.193792604</v>
+        <v>0.202627374</v>
       </c>
       <c r="L199" s="1">
-        <v>4401</v>
+        <v>747</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>741</v>
+        <v>724</v>
       </c>
       <c r="N199" s="1" t="s">
         <v>1524</v>
@@ -13950,10 +13959,10 @@
     </row>
     <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="1" t="s">
-        <v>742</v>
-      </c>
-      <c r="B200" s="1">
-        <v>113442</v>
+        <v>901</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>901</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>14</v>
@@ -13962,28 +13971,28 @@
         <v>625</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>732</v>
+        <v>888</v>
       </c>
       <c r="F200" s="2" t="s">
-        <v>733</v>
+        <v>889</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>743</v>
+        <v>902</v>
       </c>
       <c r="I200" s="2">
-        <v>8.2144106850000007</v>
+        <v>4.6875550989999999</v>
       </c>
       <c r="J200" s="1">
-        <v>30283</v>
+        <v>17281</v>
       </c>
       <c r="K200" s="1">
-        <v>1.116484971</v>
+        <v>0.135627426</v>
       </c>
       <c r="L200" s="1">
-        <v>4116</v>
+        <v>500</v>
       </c>
       <c r="M200" s="1" t="s">
-        <v>744</v>
+        <v>903</v>
       </c>
       <c r="N200" s="1" t="s">
         <v>1524</v>
@@ -13991,10 +14000,10 @@
     </row>
     <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="s">
-        <v>745</v>
+        <v>809</v>
       </c>
       <c r="B201" s="1">
-        <v>153916</v>
+        <v>17174</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>14</v>
@@ -14003,28 +14012,28 @@
         <v>625</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="F201" s="2" t="s">
-        <v>733</v>
+        <v>811</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>746</v>
+        <v>812</v>
       </c>
       <c r="I201" s="2">
-        <v>10.21057514</v>
+        <v>4.8804172980000002</v>
       </c>
       <c r="J201" s="1">
-        <v>37642</v>
+        <v>17992</v>
       </c>
       <c r="K201" s="1">
-        <v>1.0055417369999999</v>
+        <v>0.663218113</v>
       </c>
       <c r="L201" s="1">
-        <v>3707</v>
+        <v>2445</v>
       </c>
       <c r="M201" s="1" t="s">
-        <v>747</v>
+        <v>813</v>
       </c>
       <c r="N201" s="1" t="s">
         <v>1524</v>
@@ -14032,10 +14041,10 @@
     </row>
     <row r="202" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A202" s="1" t="s">
-        <v>748</v>
+        <v>814</v>
       </c>
       <c r="B202" s="1">
-        <v>16563</v>
+        <v>16534</v>
       </c>
       <c r="C202" s="1" t="s">
         <v>14</v>
@@ -14044,28 +14053,28 @@
         <v>625</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="F202" s="2" t="s">
-        <v>733</v>
+        <v>811</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>749</v>
+        <v>815</v>
       </c>
       <c r="I202" s="2">
-        <v>10.376311859999999</v>
+        <v>4.8847573759999996</v>
       </c>
       <c r="J202" s="1">
-        <v>38253</v>
+        <v>18008</v>
       </c>
       <c r="K202" s="1">
-        <v>1.0367360450000001</v>
+        <v>0.88591834700000005</v>
       </c>
       <c r="L202" s="1">
-        <v>3822</v>
+        <v>3266</v>
       </c>
       <c r="M202" s="1" t="s">
-        <v>750</v>
+        <v>816</v>
       </c>
       <c r="N202" s="1" t="s">
         <v>1524</v>
@@ -14073,10 +14082,10 @@
     </row>
     <row r="203" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
-        <v>751</v>
+        <v>662</v>
       </c>
       <c r="B203" s="1">
-        <v>114010</v>
+        <v>113881</v>
       </c>
       <c r="C203" s="1" t="s">
         <v>14</v>
@@ -14085,28 +14094,28 @@
         <v>625</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>732</v>
+        <v>655</v>
       </c>
       <c r="F203" s="2" t="s">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>752</v>
+        <v>663</v>
       </c>
       <c r="I203" s="2">
-        <v>14.68682271</v>
+        <v>5.1164090199999999</v>
       </c>
       <c r="J203" s="1">
-        <v>54144</v>
+        <v>18862</v>
       </c>
       <c r="K203" s="1">
-        <v>0.72506422000000004</v>
+        <v>0.85879286200000005</v>
       </c>
       <c r="L203" s="1">
-        <v>2673</v>
+        <v>3166</v>
       </c>
       <c r="M203" s="1" t="s">
-        <v>753</v>
+        <v>664</v>
       </c>
       <c r="N203" s="1" t="s">
         <v>1524</v>
@@ -14114,10 +14123,10 @@
     </row>
     <row r="204" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
-        <v>754</v>
+        <v>697</v>
       </c>
       <c r="B204" s="1">
-        <v>16375</v>
+        <v>121981</v>
       </c>
       <c r="C204" s="1" t="s">
         <v>14</v>
@@ -14126,28 +14135,28 @@
         <v>625</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
       <c r="F204" s="2" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>755</v>
+        <v>700</v>
       </c>
       <c r="I204" s="2">
-        <v>16.448894230000001</v>
+        <v>5.1671336769999998</v>
       </c>
       <c r="J204" s="1">
-        <v>60640</v>
+        <v>19049</v>
       </c>
       <c r="K204" s="1">
-        <v>0.674339562</v>
+        <v>0.38463937999999998</v>
       </c>
       <c r="L204" s="1">
-        <v>2486</v>
+        <v>1418</v>
       </c>
       <c r="M204" s="1" t="s">
-        <v>756</v>
+        <v>701</v>
       </c>
       <c r="N204" s="1" t="s">
         <v>1524</v>
@@ -14155,10 +14164,10 @@
     </row>
     <row r="205" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A205" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="B205" s="1">
-        <v>15816</v>
+        <v>856</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="C205" s="1" t="s">
         <v>14</v>
@@ -14167,28 +14176,28 @@
         <v>625</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>732</v>
+        <v>857</v>
       </c>
       <c r="F205" s="2" t="s">
-        <v>733</v>
+        <v>858</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>758</v>
+        <v>859</v>
       </c>
       <c r="I205" s="2">
-        <v>25.16404137</v>
+        <v>5.1983279849999997</v>
       </c>
       <c r="J205" s="1">
-        <v>92769</v>
+        <v>19164</v>
       </c>
       <c r="K205" s="1">
-        <v>0.82976859199999997</v>
+        <v>0.95888590200000001</v>
       </c>
       <c r="L205" s="1">
-        <v>3059</v>
+        <v>3535</v>
       </c>
       <c r="M205" s="1" t="s">
-        <v>759</v>
+        <v>860</v>
       </c>
       <c r="N205" s="1" t="s">
         <v>1524</v>
@@ -14196,10 +14205,10 @@
     </row>
     <row r="206" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A206" s="1" t="s">
-        <v>760</v>
+        <v>665</v>
       </c>
       <c r="B206" s="1">
-        <v>21700</v>
+        <v>132170</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>14</v>
@@ -14208,28 +14217,28 @@
         <v>625</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>732</v>
+        <v>655</v>
       </c>
       <c r="F206" s="2" t="s">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>761</v>
+        <v>666</v>
       </c>
       <c r="I206" s="2">
-        <v>26.183688360000001</v>
+        <v>5.2712955399999997</v>
       </c>
       <c r="J206" s="1">
-        <v>96528</v>
+        <v>19433</v>
       </c>
       <c r="K206" s="1">
-        <v>0.77687389600000001</v>
+        <v>1.0554526289999999</v>
       </c>
       <c r="L206" s="1">
-        <v>2864</v>
+        <v>3891</v>
       </c>
       <c r="M206" s="1" t="s">
-        <v>762</v>
+        <v>667</v>
       </c>
       <c r="N206" s="1" t="s">
         <v>1524</v>
@@ -14237,10 +14246,10 @@
     </row>
     <row r="207" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A207" s="1" t="s">
-        <v>763</v>
+        <v>668</v>
       </c>
       <c r="B207" s="1">
-        <v>15812</v>
+        <v>119781</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>14</v>
@@ -14249,28 +14258,28 @@
         <v>625</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>732</v>
+        <v>655</v>
       </c>
       <c r="F207" s="2" t="s">
-        <v>733</v>
+        <v>656</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>764</v>
+        <v>669</v>
       </c>
       <c r="I207" s="2">
-        <v>60.558730740000001</v>
+        <v>5.3751861490000001</v>
       </c>
       <c r="J207" s="1">
-        <v>223254</v>
+        <v>19816</v>
       </c>
       <c r="K207" s="1">
-        <v>0.33255844899999998</v>
+        <v>1.2545536909999999</v>
       </c>
       <c r="L207" s="1">
-        <v>1226</v>
+        <v>4625</v>
       </c>
       <c r="M207" s="1" t="s">
-        <v>765</v>
+        <v>670</v>
       </c>
       <c r="N207" s="1" t="s">
         <v>1524</v>
@@ -14278,10 +14287,10 @@
     </row>
     <row r="208" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>766</v>
+        <v>817</v>
+      </c>
+      <c r="B208" s="1">
+        <v>22003</v>
       </c>
       <c r="C208" s="1" t="s">
         <v>14</v>
@@ -14290,28 +14299,28 @@
         <v>625</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>769</v>
+        <v>818</v>
       </c>
       <c r="I208" s="2">
-        <v>3.6117583550000001</v>
+        <v>5.406380457</v>
       </c>
       <c r="J208" s="1">
-        <v>13315</v>
+        <v>19931</v>
       </c>
       <c r="K208" s="1">
-        <v>0.30841676699999998</v>
+        <v>1.0378210640000001</v>
       </c>
       <c r="L208" s="1">
-        <v>1137</v>
-      </c>
-      <c r="M208" s="3" t="s">
-        <v>770</v>
+        <v>3826</v>
+      </c>
+      <c r="M208" s="1" t="s">
+        <v>819</v>
       </c>
       <c r="N208" s="1" t="s">
         <v>1524</v>
@@ -14319,10 +14328,10 @@
     </row>
     <row r="209" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>771</v>
+        <v>731</v>
+      </c>
+      <c r="B209" s="1">
+        <v>119302</v>
       </c>
       <c r="C209" s="1" t="s">
         <v>14</v>
@@ -14331,28 +14340,28 @@
         <v>625</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="F209" s="2" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>772</v>
+        <v>734</v>
       </c>
       <c r="I209" s="2">
-        <v>3.6972036340000001</v>
+        <v>5.4253682960000003</v>
       </c>
       <c r="J209" s="1">
-        <v>13630</v>
+        <v>20001</v>
       </c>
       <c r="K209" s="1">
-        <v>0.27912124300000002</v>
+        <v>0.92877661300000003</v>
       </c>
       <c r="L209" s="1">
-        <v>1029</v>
+        <v>3424</v>
       </c>
       <c r="M209" s="1" t="s">
-        <v>773</v>
+        <v>735</v>
       </c>
       <c r="N209" s="1" t="s">
         <v>1524</v>
@@ -14360,10 +14369,10 @@
     </row>
     <row r="210" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>774</v>
+        <v>671</v>
+      </c>
+      <c r="B210" s="1">
+        <v>15864</v>
       </c>
       <c r="C210" s="1" t="s">
         <v>14</v>
@@ -14372,28 +14381,28 @@
         <v>625</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>767</v>
+        <v>655</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>768</v>
+        <v>656</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>775</v>
+        <v>672</v>
       </c>
       <c r="I210" s="2">
-        <v>3.7400619000000002</v>
+        <v>5.5873074430000003</v>
       </c>
       <c r="J210" s="1">
-        <v>13788</v>
+        <v>20598</v>
       </c>
       <c r="K210" s="1">
-        <v>0.28346132000000002</v>
+        <v>1.0551813750000001</v>
       </c>
       <c r="L210" s="1">
-        <v>1045</v>
+        <v>3890</v>
       </c>
       <c r="M210" s="1" t="s">
-        <v>776</v>
+        <v>673</v>
       </c>
       <c r="N210" s="1" t="s">
         <v>1524</v>
@@ -14401,10 +14410,10 @@
     </row>
     <row r="211" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>777</v>
+        <v>736</v>
+      </c>
+      <c r="B211" s="1">
+        <v>125976</v>
       </c>
       <c r="C211" s="1" t="s">
         <v>14</v>
@@ -14413,28 +14422,28 @@
         <v>625</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>767</v>
+        <v>732</v>
       </c>
       <c r="F211" s="2" t="s">
-        <v>768</v>
+        <v>733</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>778</v>
+        <v>737</v>
       </c>
       <c r="I211" s="2">
-        <v>4.3153934420000004</v>
+        <v>5.5938175589999997</v>
       </c>
       <c r="J211" s="1">
-        <v>15909</v>
+        <v>20622</v>
       </c>
       <c r="K211" s="1">
-        <v>0.270441088</v>
+        <v>0.19964357099999999</v>
       </c>
       <c r="L211" s="1">
-        <v>997</v>
+        <v>736</v>
       </c>
       <c r="M211" s="1" t="s">
-        <v>779</v>
+        <v>738</v>
       </c>
       <c r="N211" s="1" t="s">
         <v>1524</v>
@@ -14442,10 +14451,10 @@
     </row>
     <row r="212" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>14</v>
@@ -14454,28 +14463,28 @@
         <v>625</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>767</v>
+        <v>703</v>
       </c>
       <c r="F212" s="2" t="s">
-        <v>768</v>
+        <v>704</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="I212" s="2">
-        <v>4.3503853179999998</v>
+        <v>6.3413959320000002</v>
       </c>
       <c r="J212" s="1">
-        <v>16038</v>
+        <v>23378</v>
       </c>
       <c r="K212" s="1">
-        <v>0.30299166999999999</v>
+        <v>0.246570661</v>
       </c>
       <c r="L212" s="1">
-        <v>1117</v>
+        <v>909</v>
       </c>
       <c r="M212" s="1" t="s">
-        <v>782</v>
+        <v>727</v>
       </c>
       <c r="N212" s="1" t="s">
         <v>1524</v>
@@ -14483,10 +14492,10 @@
     </row>
     <row r="213" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>783</v>
+        <v>692</v>
+      </c>
+      <c r="B213" s="1">
+        <v>15551</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>14</v>
@@ -14495,28 +14504,28 @@
         <v>625</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>767</v>
+        <v>693</v>
       </c>
       <c r="F213" s="2" t="s">
-        <v>768</v>
+        <v>694</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>784</v>
+        <v>695</v>
       </c>
       <c r="I213" s="2">
-        <v>4.505543093</v>
+        <v>6.802800435</v>
       </c>
       <c r="J213" s="1">
-        <v>16610</v>
+        <v>25079</v>
       </c>
       <c r="K213" s="1">
-        <v>0.301092886</v>
+        <v>1.077424272</v>
       </c>
       <c r="L213" s="1">
-        <v>1110</v>
+        <v>3972</v>
       </c>
       <c r="M213" s="1" t="s">
-        <v>785</v>
+        <v>696</v>
       </c>
       <c r="N213" s="1" t="s">
         <v>1524</v>
@@ -14524,10 +14533,10 @@
     </row>
     <row r="214" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A214" s="1" t="s">
-        <v>786</v>
+        <v>872</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>786</v>
+        <v>872</v>
       </c>
       <c r="C214" s="1" t="s">
         <v>14</v>
@@ -14536,28 +14545,28 @@
         <v>625</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>767</v>
+        <v>862</v>
       </c>
       <c r="F214" s="2" t="s">
-        <v>768</v>
+        <v>863</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>787</v>
+        <v>873</v>
       </c>
       <c r="I214" s="2">
-        <v>36.684777449999999</v>
+        <v>7.0246869040000002</v>
       </c>
       <c r="J214" s="1">
-        <v>135241</v>
+        <v>25897</v>
       </c>
       <c r="K214" s="1">
-        <v>0.13644119099999999</v>
+        <v>0.18418204499999999</v>
       </c>
       <c r="L214" s="1">
-        <v>503</v>
+        <v>679</v>
       </c>
       <c r="M214" s="1" t="s">
-        <v>788</v>
+        <v>874</v>
       </c>
       <c r="N214" s="1" t="s">
         <v>1524</v>
@@ -14565,10 +14574,10 @@
     </row>
     <row r="215" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A215" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>789</v>
+        <v>820</v>
+      </c>
+      <c r="B215" s="1">
+        <v>172274</v>
       </c>
       <c r="C215" s="1" t="s">
         <v>14</v>
@@ -14577,28 +14586,28 @@
         <v>625</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>767</v>
+        <v>810</v>
       </c>
       <c r="F215" s="2" t="s">
-        <v>768</v>
+        <v>811</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>790</v>
+        <v>821</v>
       </c>
       <c r="I215" s="2">
-        <v>63.251477659999999</v>
+        <v>7.0249581589999996</v>
       </c>
       <c r="J215" s="1">
-        <v>233181</v>
+        <v>25898</v>
       </c>
       <c r="K215" s="1">
-        <v>7.2425046000000007E-2</v>
+        <v>0.22324274299999999</v>
       </c>
       <c r="L215" s="1">
-        <v>267</v>
+        <v>823</v>
       </c>
       <c r="M215" s="1" t="s">
-        <v>791</v>
+        <v>822</v>
       </c>
       <c r="N215" s="1" t="s">
         <v>1524</v>
@@ -14606,10 +14615,10 @@
     </row>
     <row r="216" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="s">
-        <v>792</v>
+        <v>875</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>792</v>
+        <v>875</v>
       </c>
       <c r="C216" s="1" t="s">
         <v>14</v>
@@ -14618,39 +14627,39 @@
         <v>625</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>794</v>
+        <v>862</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>863</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>795</v>
+        <v>876</v>
       </c>
       <c r="I216" s="2">
-        <v>3.3939407089999998</v>
+        <v>7.0604925449999998</v>
       </c>
       <c r="J216" s="1">
-        <v>12512</v>
+        <v>26029</v>
       </c>
       <c r="K216" s="1">
-        <v>0.167092989</v>
+        <v>0.21727513700000001</v>
       </c>
       <c r="L216" s="1">
-        <v>616</v>
-      </c>
-      <c r="M216" s="3" t="s">
-        <v>796</v>
-      </c>
-      <c r="N216" s="3" t="s">
-        <v>1548</v>
+        <v>801</v>
+      </c>
+      <c r="M216" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="N216" s="1" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="217" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A217" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>797</v>
+        <v>739</v>
+      </c>
+      <c r="B217" s="1">
+        <v>121385</v>
       </c>
       <c r="C217" s="1" t="s">
         <v>14</v>
@@ -14659,39 +14668,39 @@
         <v>625</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>793</v>
+        <v>732</v>
       </c>
       <c r="F217" s="2" t="s">
-        <v>794</v>
+        <v>733</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>798</v>
+        <v>740</v>
       </c>
       <c r="I217" s="2">
-        <v>3.582191576</v>
+        <v>7.3100470079999997</v>
       </c>
       <c r="J217" s="1">
-        <v>13206</v>
+        <v>26949</v>
       </c>
       <c r="K217" s="1">
-        <v>0.11609707700000001</v>
+        <v>1.193792604</v>
       </c>
       <c r="L217" s="1">
-        <v>428</v>
-      </c>
-      <c r="M217" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="N217" s="3" t="s">
-        <v>1547</v>
+        <v>4401</v>
+      </c>
+      <c r="M217" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="N217" s="1" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="218" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>800</v>
+        <v>674</v>
+      </c>
+      <c r="B218" s="1">
+        <v>129353</v>
       </c>
       <c r="C218" s="1" t="s">
         <v>14</v>
@@ -14700,28 +14709,28 @@
         <v>625</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>793</v>
+        <v>655</v>
       </c>
       <c r="F218" s="2" t="s">
-        <v>794</v>
+        <v>656</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>801</v>
+        <v>675</v>
       </c>
       <c r="I218" s="2">
-        <v>4.0737053679999997</v>
+        <v>7.5351885359999997</v>
       </c>
       <c r="J218" s="1">
-        <v>15018</v>
+        <v>27779</v>
       </c>
       <c r="K218" s="1">
-        <v>0.150275188</v>
+        <v>0.19367596400000001</v>
       </c>
       <c r="L218" s="1">
-        <v>554</v>
+        <v>714</v>
       </c>
       <c r="M218" s="1" t="s">
-        <v>802</v>
+        <v>676</v>
       </c>
       <c r="N218" s="1" t="s">
         <v>1524</v>
@@ -14729,10 +14738,10 @@
     </row>
     <row r="219" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>803</v>
+        <v>677</v>
+      </c>
+      <c r="B219" s="1">
+        <v>165722</v>
       </c>
       <c r="C219" s="1" t="s">
         <v>14</v>
@@ -14741,28 +14750,28 @@
         <v>625</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>793</v>
+        <v>655</v>
       </c>
       <c r="F219" s="2" t="s">
-        <v>794</v>
+        <v>656</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>804</v>
+        <v>678</v>
       </c>
       <c r="I219" s="2">
-        <v>4.2302194179999999</v>
+        <v>7.6176500110000003</v>
       </c>
       <c r="J219" s="1">
-        <v>15595</v>
+        <v>28083</v>
       </c>
       <c r="K219" s="1">
-        <v>0.14783389399999999</v>
+        <v>1.1737197450000001</v>
       </c>
       <c r="L219" s="1">
-        <v>545</v>
+        <v>4327</v>
       </c>
       <c r="M219" s="1" t="s">
-        <v>805</v>
+        <v>679</v>
       </c>
       <c r="N219" s="1" t="s">
         <v>1524</v>
@@ -14770,10 +14779,10 @@
     </row>
     <row r="220" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A220" s="1" t="s">
-        <v>806</v>
+        <v>878</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>806</v>
+        <v>878</v>
       </c>
       <c r="C220" s="1" t="s">
         <v>14</v>
@@ -14782,28 +14791,28 @@
         <v>625</v>
       </c>
       <c r="E220" s="1" t="s">
-        <v>793</v>
+        <v>862</v>
       </c>
       <c r="F220" s="2" t="s">
-        <v>794</v>
+        <v>863</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>807</v>
+        <v>879</v>
       </c>
       <c r="I220" s="2">
-        <v>4.2578874129999997</v>
+        <v>7.7030952890000002</v>
       </c>
       <c r="J220" s="1">
-        <v>15697</v>
+        <v>28398</v>
       </c>
       <c r="K220" s="1">
-        <v>0.16166789200000001</v>
+        <v>0.22514152700000001</v>
       </c>
       <c r="L220" s="1">
-        <v>596</v>
+        <v>830</v>
       </c>
       <c r="M220" s="1" t="s">
-        <v>808</v>
+        <v>880</v>
       </c>
       <c r="N220" s="1" t="s">
         <v>1524</v>
@@ -14811,10 +14820,10 @@
     </row>
     <row r="221" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A221" s="1" t="s">
-        <v>809</v>
+        <v>742</v>
       </c>
       <c r="B221" s="1">
-        <v>17174</v>
+        <v>113442</v>
       </c>
       <c r="C221" s="1" t="s">
         <v>14</v>
@@ -14823,28 +14832,28 @@
         <v>625</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="F221" s="2" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="G221" s="1" t="s">
-        <v>812</v>
+        <v>743</v>
       </c>
       <c r="I221" s="2">
-        <v>4.8804172980000002</v>
+        <v>8.2144106850000007</v>
       </c>
       <c r="J221" s="1">
-        <v>17992</v>
+        <v>30283</v>
       </c>
       <c r="K221" s="1">
-        <v>0.663218113</v>
+        <v>1.116484971</v>
       </c>
       <c r="L221" s="1">
-        <v>2445</v>
+        <v>4116</v>
       </c>
       <c r="M221" s="1" t="s">
-        <v>813</v>
+        <v>744</v>
       </c>
       <c r="N221" s="1" t="s">
         <v>1524</v>
@@ -14852,10 +14861,10 @@
     </row>
     <row r="222" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A222" s="1" t="s">
-        <v>814</v>
+        <v>680</v>
       </c>
       <c r="B222" s="1">
-        <v>16534</v>
+        <v>119833</v>
       </c>
       <c r="C222" s="1" t="s">
         <v>14</v>
@@ -14864,28 +14873,28 @@
         <v>625</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>810</v>
+        <v>655</v>
       </c>
       <c r="F222" s="2" t="s">
-        <v>811</v>
+        <v>656</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>815</v>
+        <v>681</v>
       </c>
       <c r="I222" s="2">
-        <v>4.8847573759999996</v>
+        <v>8.7954385780000006</v>
       </c>
       <c r="J222" s="1">
-        <v>18008</v>
+        <v>32425</v>
       </c>
       <c r="K222" s="1">
-        <v>0.88591834700000005</v>
+        <v>0.84957019700000003</v>
       </c>
       <c r="L222" s="1">
-        <v>3266</v>
+        <v>3132</v>
       </c>
       <c r="M222" s="1" t="s">
-        <v>816</v>
+        <v>682</v>
       </c>
       <c r="N222" s="1" t="s">
         <v>1524</v>
@@ -14893,10 +14902,10 @@
     </row>
     <row r="223" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B223" s="1">
-        <v>22003</v>
+        <v>30927</v>
       </c>
       <c r="C223" s="1" t="s">
         <v>14</v>
@@ -14911,22 +14920,22 @@
         <v>811</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="I223" s="2">
-        <v>5.406380457</v>
+        <v>9.2972600550000006</v>
       </c>
       <c r="J223" s="1">
-        <v>19931</v>
+        <v>34275</v>
       </c>
       <c r="K223" s="1">
-        <v>1.0378210640000001</v>
+        <v>0.98329883900000004</v>
       </c>
       <c r="L223" s="1">
-        <v>3826</v>
+        <v>3625</v>
       </c>
       <c r="M223" s="1" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="N223" s="1" t="s">
         <v>1524</v>
@@ -14934,10 +14943,10 @@
     </row>
     <row r="224" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
-        <v>820</v>
+        <v>745</v>
       </c>
       <c r="B224" s="1">
-        <v>172274</v>
+        <v>153916</v>
       </c>
       <c r="C224" s="1" t="s">
         <v>14</v>
@@ -14946,28 +14955,28 @@
         <v>625</v>
       </c>
       <c r="E224" s="1" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="F224" s="2" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>821</v>
+        <v>746</v>
       </c>
       <c r="I224" s="2">
-        <v>7.0249581589999996</v>
+        <v>10.21057514</v>
       </c>
       <c r="J224" s="1">
-        <v>25898</v>
+        <v>37642</v>
       </c>
       <c r="K224" s="1">
-        <v>0.22324274299999999</v>
+        <v>1.0055417369999999</v>
       </c>
       <c r="L224" s="1">
-        <v>823</v>
+        <v>3707</v>
       </c>
       <c r="M224" s="1" t="s">
-        <v>822</v>
+        <v>747</v>
       </c>
       <c r="N224" s="1" t="s">
         <v>1524</v>
@@ -14975,10 +14984,10 @@
     </row>
     <row r="225" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
-        <v>823</v>
+        <v>748</v>
       </c>
       <c r="B225" s="1">
-        <v>30927</v>
+        <v>16563</v>
       </c>
       <c r="C225" s="1" t="s">
         <v>14</v>
@@ -14987,28 +14996,28 @@
         <v>625</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="F225" s="2" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>824</v>
+        <v>749</v>
       </c>
       <c r="I225" s="2">
-        <v>9.2972600550000006</v>
+        <v>10.376311859999999</v>
       </c>
       <c r="J225" s="1">
-        <v>34275</v>
+        <v>38253</v>
       </c>
       <c r="K225" s="1">
-        <v>0.98329883900000004</v>
+        <v>1.0367360450000001</v>
       </c>
       <c r="L225" s="1">
-        <v>3625</v>
+        <v>3822</v>
       </c>
       <c r="M225" s="1" t="s">
-        <v>825</v>
+        <v>750</v>
       </c>
       <c r="N225" s="1" t="s">
         <v>1524</v>
@@ -15098,10 +15107,10 @@
     </row>
     <row r="228" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
-        <v>832</v>
+        <v>751</v>
       </c>
       <c r="B228" s="1">
-        <v>100222</v>
+        <v>114010</v>
       </c>
       <c r="C228" s="1" t="s">
         <v>14</v>
@@ -15110,28 +15119,28 @@
         <v>625</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="F228" s="2" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>833</v>
+        <v>752</v>
       </c>
       <c r="I228" s="2">
-        <v>16.47466344</v>
+        <v>14.68682271</v>
       </c>
       <c r="J228" s="1">
-        <v>60735</v>
+        <v>54144</v>
       </c>
       <c r="K228" s="1">
-        <v>0.62876874699999996</v>
+        <v>0.72506422000000004</v>
       </c>
       <c r="L228" s="1">
-        <v>2318</v>
+        <v>2673</v>
       </c>
       <c r="M228" s="1" t="s">
-        <v>834</v>
+        <v>753</v>
       </c>
       <c r="N228" s="1" t="s">
         <v>1524</v>
@@ -15139,10 +15148,10 @@
     </row>
     <row r="229" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A229" s="1" t="s">
-        <v>835</v>
+        <v>754</v>
       </c>
       <c r="B229" s="1">
-        <v>15836</v>
+        <v>16375</v>
       </c>
       <c r="C229" s="1" t="s">
         <v>14</v>
@@ -15151,28 +15160,28 @@
         <v>625</v>
       </c>
       <c r="E229" s="1" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>836</v>
+        <v>755</v>
       </c>
       <c r="I229" s="2">
-        <v>20.834542679999998</v>
+        <v>16.448894230000001</v>
       </c>
       <c r="J229" s="1">
-        <v>76808</v>
+        <v>60640</v>
       </c>
       <c r="K229" s="1">
-        <v>0.57858659899999998</v>
+        <v>0.674339562</v>
       </c>
       <c r="L229" s="1">
-        <v>2133</v>
+        <v>2486</v>
       </c>
       <c r="M229" s="1" t="s">
-        <v>837</v>
+        <v>756</v>
       </c>
       <c r="N229" s="1" t="s">
         <v>1524</v>
@@ -15180,10 +15189,10 @@
     </row>
     <row r="230" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A230" s="1" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
       <c r="B230" s="1">
-        <v>17772</v>
+        <v>100222</v>
       </c>
       <c r="C230" s="1" t="s">
         <v>14</v>
@@ -15198,22 +15207,22 @@
         <v>811</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
       <c r="I230" s="2">
-        <v>25.745883030000002</v>
+        <v>16.47466344</v>
       </c>
       <c r="J230" s="1">
-        <v>94914</v>
+        <v>60735</v>
       </c>
       <c r="K230" s="1">
-        <v>0.49476884999999998</v>
+        <v>0.62876874699999996</v>
       </c>
       <c r="L230" s="1">
-        <v>1824</v>
+        <v>2318</v>
       </c>
       <c r="M230" s="1" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
       <c r="N230" s="1" t="s">
         <v>1524</v>
@@ -15221,10 +15230,10 @@
     </row>
     <row r="231" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="s">
-        <v>841</v>
+        <v>683</v>
       </c>
       <c r="B231" s="1">
-        <v>16541</v>
+        <v>16580</v>
       </c>
       <c r="C231" s="1" t="s">
         <v>14</v>
@@ -15233,28 +15242,28 @@
         <v>625</v>
       </c>
       <c r="E231" s="1" t="s">
-        <v>810</v>
+        <v>655</v>
       </c>
       <c r="F231" s="2" t="s">
-        <v>811</v>
+        <v>656</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>842</v>
+        <v>684</v>
       </c>
       <c r="I231" s="2">
-        <v>32.031942970000003</v>
+        <v>20.017523059999998</v>
       </c>
       <c r="J231" s="1">
-        <v>118088</v>
+        <v>73796</v>
       </c>
       <c r="K231" s="1">
-        <v>0.63989019599999997</v>
+        <v>0.57641656100000005</v>
       </c>
       <c r="L231" s="1">
-        <v>2359</v>
+        <v>2125</v>
       </c>
       <c r="M231" s="1" t="s">
-        <v>843</v>
+        <v>685</v>
       </c>
       <c r="N231" s="1" t="s">
         <v>1524</v>
@@ -15262,10 +15271,10 @@
     </row>
     <row r="232" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="B232" s="1">
-        <v>14728</v>
+        <v>15836</v>
       </c>
       <c r="C232" s="1" t="s">
         <v>14</v>
@@ -15280,22 +15289,22 @@
         <v>811</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="I232" s="2">
-        <v>36.440376829999998</v>
+        <v>20.834542679999998</v>
       </c>
       <c r="J232" s="1">
-        <v>134340</v>
+        <v>76808</v>
       </c>
       <c r="K232" s="1">
-        <v>0.51348543499999999</v>
+        <v>0.57858659899999998</v>
       </c>
       <c r="L232" s="1">
-        <v>1893</v>
+        <v>2133</v>
       </c>
       <c r="M232" s="1" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="N232" s="1" t="s">
         <v>1524</v>
@@ -15303,10 +15312,10 @@
     </row>
     <row r="233" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A233" s="1" t="s">
-        <v>847</v>
+        <v>757</v>
       </c>
       <c r="B233" s="1">
-        <v>17339</v>
+        <v>15816</v>
       </c>
       <c r="C233" s="1" t="s">
         <v>14</v>
@@ -15315,28 +15324,28 @@
         <v>625</v>
       </c>
       <c r="E233" s="1" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="F233" s="2" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>848</v>
+        <v>758</v>
       </c>
       <c r="I233" s="2">
-        <v>38.639711169999998</v>
+        <v>25.16404137</v>
       </c>
       <c r="J233" s="1">
-        <v>142448</v>
+        <v>92769</v>
       </c>
       <c r="K233" s="1">
-        <v>0.59703192900000002</v>
+        <v>0.82976859199999997</v>
       </c>
       <c r="L233" s="1">
-        <v>2201</v>
+        <v>3059</v>
       </c>
       <c r="M233" s="1" t="s">
-        <v>849</v>
+        <v>759</v>
       </c>
       <c r="N233" s="1" t="s">
         <v>1524</v>
@@ -15344,10 +15353,10 @@
     </row>
     <row r="234" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A234" s="1" t="s">
-        <v>850</v>
+        <v>838</v>
       </c>
       <c r="B234" s="1">
-        <v>80698</v>
+        <v>17772</v>
       </c>
       <c r="C234" s="1" t="s">
         <v>14</v>
@@ -15362,22 +15371,22 @@
         <v>811</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>851</v>
+        <v>839</v>
       </c>
       <c r="I234" s="2">
-        <v>48.675326929999997</v>
+        <v>25.745883030000002</v>
       </c>
       <c r="J234" s="1">
-        <v>179445</v>
+        <v>94914</v>
       </c>
       <c r="K234" s="1">
-        <v>0.278307478</v>
+        <v>0.49476884999999998</v>
       </c>
       <c r="L234" s="1">
-        <v>1026</v>
+        <v>1824</v>
       </c>
       <c r="M234" s="1" t="s">
-        <v>852</v>
+        <v>840</v>
       </c>
       <c r="N234" s="1" t="s">
         <v>1524</v>
@@ -15385,10 +15394,10 @@
     </row>
     <row r="235" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
-        <v>853</v>
+        <v>760</v>
       </c>
       <c r="B235" s="1">
-        <v>15566</v>
+        <v>21700</v>
       </c>
       <c r="C235" s="1" t="s">
         <v>14</v>
@@ -15397,28 +15406,28 @@
         <v>625</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>810</v>
+        <v>732</v>
       </c>
       <c r="F235" s="2" t="s">
-        <v>811</v>
+        <v>733</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>854</v>
+        <v>761</v>
       </c>
       <c r="I235" s="2">
-        <v>69.578497089999999</v>
+        <v>26.183688360000001</v>
       </c>
       <c r="J235" s="1">
-        <v>256506</v>
+        <v>96528</v>
       </c>
       <c r="K235" s="1">
-        <v>0.14702013</v>
+        <v>0.77687389600000001</v>
       </c>
       <c r="L235" s="1">
-        <v>542</v>
+        <v>2864</v>
       </c>
       <c r="M235" s="1" t="s">
-        <v>855</v>
+        <v>762</v>
       </c>
       <c r="N235" s="1" t="s">
         <v>1524</v>
@@ -15426,10 +15435,10 @@
     </row>
     <row r="236" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
-        <v>856</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>68</v>
+        <v>686</v>
+      </c>
+      <c r="B236" s="1">
+        <v>16383</v>
       </c>
       <c r="C236" s="1" t="s">
         <v>14</v>
@@ -15438,28 +15447,28 @@
         <v>625</v>
       </c>
       <c r="E236" s="1" t="s">
-        <v>857</v>
+        <v>655</v>
       </c>
       <c r="F236" s="2" t="s">
-        <v>858</v>
+        <v>656</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>859</v>
+        <v>687</v>
       </c>
       <c r="I236" s="2">
-        <v>5.1983279849999997</v>
+        <v>29.076621360000001</v>
       </c>
       <c r="J236" s="1">
-        <v>19164</v>
+        <v>107193</v>
       </c>
       <c r="K236" s="1">
-        <v>0.95888590200000001</v>
+        <v>0.54332346899999995</v>
       </c>
       <c r="L236" s="1">
-        <v>3535</v>
+        <v>2003</v>
       </c>
       <c r="M236" s="1" t="s">
-        <v>860</v>
+        <v>688</v>
       </c>
       <c r="N236" s="1" t="s">
         <v>1524</v>
@@ -15467,10 +15476,10 @@
     </row>
     <row r="237" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>861</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>861</v>
+        <v>841</v>
+      </c>
+      <c r="B237" s="1">
+        <v>16541</v>
       </c>
       <c r="C237" s="1" t="s">
         <v>14</v>
@@ -15479,39 +15488,39 @@
         <v>625</v>
       </c>
       <c r="E237" s="1" t="s">
-        <v>862</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>863</v>
+        <v>810</v>
+      </c>
+      <c r="F237" s="2" t="s">
+        <v>811</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>864</v>
+        <v>842</v>
       </c>
       <c r="I237" s="2">
-        <v>3.5339082130000001</v>
+        <v>32.031942970000003</v>
       </c>
       <c r="J237" s="1">
-        <v>13028</v>
+        <v>118088</v>
       </c>
       <c r="K237" s="1">
-        <v>0.23653423100000001</v>
+        <v>0.63989019599999997</v>
       </c>
       <c r="L237" s="1">
-        <v>872</v>
-      </c>
-      <c r="M237" s="3" t="s">
-        <v>865</v>
-      </c>
-      <c r="N237" s="3" t="s">
-        <v>1546</v>
+        <v>2359</v>
+      </c>
+      <c r="M237" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="N237" s="1" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="238" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>866</v>
-      </c>
-      <c r="B238" s="1" t="s">
-        <v>866</v>
+        <v>844</v>
+      </c>
+      <c r="B238" s="1">
+        <v>14728</v>
       </c>
       <c r="C238" s="1" t="s">
         <v>14</v>
@@ -15520,28 +15529,28 @@
         <v>625</v>
       </c>
       <c r="E238" s="1" t="s">
-        <v>862</v>
+        <v>810</v>
       </c>
       <c r="F238" s="2" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>867</v>
+        <v>845</v>
       </c>
       <c r="I238" s="2">
-        <v>3.6041632190000001</v>
+        <v>36.440376829999998</v>
       </c>
       <c r="J238" s="1">
-        <v>13287</v>
+        <v>134340</v>
       </c>
       <c r="K238" s="1">
-        <v>0.20398364899999999</v>
+        <v>0.51348543499999999</v>
       </c>
       <c r="L238" s="1">
-        <v>752</v>
+        <v>1893</v>
       </c>
       <c r="M238" s="1" t="s">
-        <v>868</v>
+        <v>846</v>
       </c>
       <c r="N238" s="1" t="s">
         <v>1524</v>
@@ -15549,10 +15558,10 @@
     </row>
     <row r="239" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>869</v>
+        <v>786</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>869</v>
+        <v>786</v>
       </c>
       <c r="C239" s="1" t="s">
         <v>14</v>
@@ -15561,28 +15570,28 @@
         <v>625</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>862</v>
+        <v>767</v>
       </c>
       <c r="F239" s="2" t="s">
-        <v>863</v>
+        <v>768</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>870</v>
+        <v>787</v>
       </c>
       <c r="I239" s="2">
-        <v>3.7495558199999999</v>
+        <v>36.684777449999999</v>
       </c>
       <c r="J239" s="1">
-        <v>13823</v>
+        <v>135241</v>
       </c>
       <c r="K239" s="1">
-        <v>0.22812533099999999</v>
+        <v>0.13644119099999999</v>
       </c>
       <c r="L239" s="1">
-        <v>841</v>
-      </c>
-      <c r="M239" s="3" t="s">
-        <v>871</v>
+        <v>503</v>
+      </c>
+      <c r="M239" s="1" t="s">
+        <v>788</v>
       </c>
       <c r="N239" s="1" t="s">
         <v>1524</v>
@@ -15590,10 +15599,10 @@
     </row>
     <row r="240" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>872</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>872</v>
+        <v>847</v>
+      </c>
+      <c r="B240" s="1">
+        <v>17339</v>
       </c>
       <c r="C240" s="1" t="s">
         <v>14</v>
@@ -15602,28 +15611,28 @@
         <v>625</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>862</v>
+        <v>810</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>873</v>
+        <v>848</v>
       </c>
       <c r="I240" s="2">
-        <v>7.0246869040000002</v>
+        <v>38.639711169999998</v>
       </c>
       <c r="J240" s="1">
-        <v>25897</v>
+        <v>142448</v>
       </c>
       <c r="K240" s="1">
-        <v>0.18418204499999999</v>
+        <v>0.59703192900000002</v>
       </c>
       <c r="L240" s="1">
-        <v>679</v>
+        <v>2201</v>
       </c>
       <c r="M240" s="1" t="s">
-        <v>874</v>
+        <v>849</v>
       </c>
       <c r="N240" s="1" t="s">
         <v>1524</v>
@@ -15631,10 +15640,10 @@
     </row>
     <row r="241" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>875</v>
+        <v>881</v>
       </c>
       <c r="C241" s="1" t="s">
         <v>14</v>
@@ -15649,22 +15658,22 @@
         <v>863</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>876</v>
+        <v>882</v>
       </c>
       <c r="I241" s="2">
-        <v>7.0604925449999998</v>
+        <v>42.784756559999998</v>
       </c>
       <c r="J241" s="1">
-        <v>26029</v>
+        <v>157729</v>
       </c>
       <c r="K241" s="1">
-        <v>0.21727513700000001</v>
+        <v>9.1684139999999997E-2</v>
       </c>
       <c r="L241" s="1">
-        <v>801</v>
+        <v>338</v>
       </c>
       <c r="M241" s="1" t="s">
-        <v>877</v>
+        <v>883</v>
       </c>
       <c r="N241" s="1" t="s">
         <v>1524</v>
@@ -15672,10 +15681,10 @@
     </row>
     <row r="242" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
-        <v>878</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>878</v>
+        <v>850</v>
+      </c>
+      <c r="B242" s="1">
+        <v>80698</v>
       </c>
       <c r="C242" s="1" t="s">
         <v>14</v>
@@ -15684,28 +15693,28 @@
         <v>625</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>862</v>
+        <v>810</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>863</v>
+        <v>811</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="I242" s="2">
-        <v>7.7030952890000002</v>
+        <v>48.675326929999997</v>
       </c>
       <c r="J242" s="1">
-        <v>28398</v>
+        <v>179445</v>
       </c>
       <c r="K242" s="1">
-        <v>0.22514152700000001</v>
+        <v>0.278307478</v>
       </c>
       <c r="L242" s="1">
-        <v>830</v>
+        <v>1026</v>
       </c>
       <c r="M242" s="1" t="s">
-        <v>880</v>
+        <v>852</v>
       </c>
       <c r="N242" s="1" t="s">
         <v>1524</v>
@@ -15713,10 +15722,10 @@
     </row>
     <row r="243" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
-        <v>881</v>
+        <v>728</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>881</v>
+        <v>728</v>
       </c>
       <c r="C243" s="1" t="s">
         <v>14</v>
@@ -15725,28 +15734,28 @@
         <v>625</v>
       </c>
       <c r="E243" s="1" t="s">
-        <v>862</v>
+        <v>703</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>863</v>
+        <v>704</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>882</v>
+        <v>729</v>
       </c>
       <c r="I243" s="2">
-        <v>42.784756559999998</v>
+        <v>52.104259509999999</v>
       </c>
       <c r="J243" s="1">
-        <v>157729</v>
+        <v>192086</v>
       </c>
       <c r="K243" s="1">
-        <v>9.1684139999999997E-2</v>
+        <v>5.9947321999999997E-2</v>
       </c>
       <c r="L243" s="1">
-        <v>338</v>
+        <v>221</v>
       </c>
       <c r="M243" s="1" t="s">
-        <v>883</v>
+        <v>730</v>
       </c>
       <c r="N243" s="1" t="s">
         <v>1524</v>
@@ -15795,10 +15804,10 @@
     </row>
     <row r="245" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
-        <v>887</v>
-      </c>
-      <c r="B245" s="1" t="s">
-        <v>887</v>
+        <v>689</v>
+      </c>
+      <c r="B245" s="1">
+        <v>16538</v>
       </c>
       <c r="C245" s="1" t="s">
         <v>14</v>
@@ -15807,28 +15816,28 @@
         <v>625</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>888</v>
+        <v>655</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>889</v>
+        <v>656</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>890</v>
+        <v>690</v>
       </c>
       <c r="I245" s="2">
-        <v>3.6006369060000001</v>
+        <v>57.431433550000001</v>
       </c>
       <c r="J245" s="1">
-        <v>13274</v>
+        <v>211725</v>
       </c>
       <c r="K245" s="1">
-        <v>0.143222562</v>
+        <v>0.218631411</v>
       </c>
       <c r="L245" s="1">
-        <v>528</v>
-      </c>
-      <c r="M245" s="3" t="s">
-        <v>891</v>
+        <v>806</v>
+      </c>
+      <c r="M245" s="1" t="s">
+        <v>691</v>
       </c>
       <c r="N245" s="1" t="s">
         <v>1524</v>
@@ -15836,10 +15845,10 @@
     </row>
     <row r="246" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
-        <v>892</v>
+        <v>651</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>892</v>
+        <v>651</v>
       </c>
       <c r="C246" s="1" t="s">
         <v>14</v>
@@ -15848,28 +15857,28 @@
         <v>625</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>888</v>
+        <v>626</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>889</v>
+        <v>627</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>893</v>
+        <v>652</v>
       </c>
       <c r="I246" s="2">
-        <v>3.7837339320000001</v>
+        <v>58.706602609999997</v>
       </c>
       <c r="J246" s="1">
-        <v>13949</v>
+        <v>216426</v>
       </c>
       <c r="K246" s="1">
-        <v>0.135356171</v>
+        <v>5.8319793000000002E-2</v>
       </c>
       <c r="L246" s="1">
-        <v>499</v>
+        <v>215</v>
       </c>
       <c r="M246" s="1" t="s">
-        <v>894</v>
+        <v>653</v>
       </c>
       <c r="N246" s="1" t="s">
         <v>1524</v>
@@ -15877,10 +15886,10 @@
     </row>
     <row r="247" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
-        <v>895</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>895</v>
+        <v>763</v>
+      </c>
+      <c r="B247" s="1">
+        <v>15812</v>
       </c>
       <c r="C247" s="1" t="s">
         <v>14</v>
@@ -15889,28 +15898,28 @@
         <v>625</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>888</v>
+        <v>732</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>889</v>
+        <v>733</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>896</v>
+        <v>764</v>
       </c>
       <c r="I247" s="2">
-        <v>4.0425110599999998</v>
+        <v>60.558730740000001</v>
       </c>
       <c r="J247" s="1">
-        <v>14903</v>
+        <v>223254</v>
       </c>
       <c r="K247" s="1">
-        <v>9.7651746999999997E-2</v>
+        <v>0.33255844899999998</v>
       </c>
       <c r="L247" s="1">
-        <v>360</v>
+        <v>1226</v>
       </c>
       <c r="M247" s="1" t="s">
-        <v>897</v>
+        <v>765</v>
       </c>
       <c r="N247" s="1" t="s">
         <v>1524</v>
@@ -15918,10 +15927,10 @@
     </row>
     <row r="248" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A248" s="1" t="s">
-        <v>898</v>
+        <v>789</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>898</v>
+        <v>789</v>
       </c>
       <c r="C248" s="1" t="s">
         <v>14</v>
@@ -15930,28 +15939,28 @@
         <v>625</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>888</v>
+        <v>767</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>889</v>
+        <v>768</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>899</v>
+        <v>790</v>
       </c>
       <c r="I248" s="2">
-        <v>4.1442316300000002</v>
+        <v>63.251477659999999</v>
       </c>
       <c r="J248" s="1">
-        <v>15278</v>
+        <v>233181</v>
       </c>
       <c r="K248" s="1">
-        <v>0.130744839</v>
+        <v>7.2425046000000007E-2</v>
       </c>
       <c r="L248" s="1">
-        <v>482</v>
+        <v>267</v>
       </c>
       <c r="M248" s="1" t="s">
-        <v>900</v>
+        <v>791</v>
       </c>
       <c r="N248" s="1" t="s">
         <v>1524</v>
@@ -15959,10 +15968,10 @@
     </row>
     <row r="249" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A249" s="1" t="s">
-        <v>901</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>901</v>
+        <v>853</v>
+      </c>
+      <c r="B249" s="1">
+        <v>15566</v>
       </c>
       <c r="C249" s="1" t="s">
         <v>14</v>
@@ -15971,28 +15980,28 @@
         <v>625</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>888</v>
+        <v>810</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>889</v>
+        <v>811</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>902</v>
+        <v>854</v>
       </c>
       <c r="I249" s="2">
-        <v>4.6875550989999999</v>
+        <v>69.578497089999999</v>
       </c>
       <c r="J249" s="1">
-        <v>17281</v>
+        <v>256506</v>
       </c>
       <c r="K249" s="1">
-        <v>0.135627426</v>
+        <v>0.14702013</v>
       </c>
       <c r="L249" s="1">
-        <v>500</v>
+        <v>542</v>
       </c>
       <c r="M249" s="1" t="s">
-        <v>903</v>
+        <v>855</v>
       </c>
       <c r="N249" s="1" t="s">
         <v>1524</v>
@@ -21622,10 +21631,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:O391">
-    <sortCondition ref="H2:H391"/>
-    <sortCondition ref="D2:D391"/>
-    <sortCondition ref="E2:E391"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A165:O249">
+    <sortCondition ref="I165:I249"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
